--- a/teaching/traditional_assets/database/data/turkey/turkey_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_air_transport.xlsx
@@ -653,10 +653,10 @@
         <v>-0.1233325504499799</v>
       </c>
       <c r="X2">
-        <v>0.2455373448151745</v>
+        <v>0.2505605346595099</v>
       </c>
       <c r="Y2">
-        <v>-0.3688698952651544</v>
+        <v>-0.3738930851094898</v>
       </c>
       <c r="Z2">
         <v>0.3706733622460626</v>
@@ -665,10 +665,10 @@
         <v>-0.006079508276661056</v>
       </c>
       <c r="AB2">
-        <v>0.1207997695772192</v>
+        <v>0.119015769862599</v>
       </c>
       <c r="AC2">
-        <v>-0.1402347088892452</v>
+        <v>-0.1384922344390219</v>
       </c>
       <c r="AD2">
         <v>19922.5</v>
@@ -784,10 +784,10 @@
         <v>-0.2807453416149068</v>
       </c>
       <c r="X3">
-        <v>0.1315425871295926</v>
+        <v>0.1308480159580742</v>
       </c>
       <c r="Y3">
-        <v>-0.4122879287444994</v>
+        <v>-0.411593357572981</v>
       </c>
       <c r="Z3">
         <v>0.7607960946301165</v>
@@ -796,10 +796,10 @@
         <v>0.09125046939541871</v>
       </c>
       <c r="AB3">
-        <v>0.1117370998441946</v>
+        <v>0.1097758895579132</v>
       </c>
       <c r="AC3">
-        <v>-0.02048663044877588</v>
+        <v>-0.01852542016249445</v>
       </c>
       <c r="AD3">
         <v>246.5</v>
@@ -918,10 +918,10 @@
         <v>0.02256410256410256</v>
       </c>
       <c r="X4">
-        <v>0.2384629558263843</v>
+        <v>0.2431313077256043</v>
       </c>
       <c r="Y4">
-        <v>-0.2158988532622818</v>
+        <v>-0.2205672051615017</v>
       </c>
       <c r="Z4">
         <v>0.2245413066692555</v>
@@ -930,10 +930,10 @@
         <v>-0.003480244636443064</v>
       </c>
       <c r="AB4">
-        <v>0.1187860770633285</v>
+        <v>0.1169970273455064</v>
       </c>
       <c r="AC4">
-        <v>-0.1222663216997716</v>
+        <v>-0.1204772719819495</v>
       </c>
       <c r="AD4">
         <v>2039.2</v>
@@ -1049,10 +1049,10 @@
         <v>-0.06345719873627201</v>
       </c>
       <c r="X5">
-        <v>0.5434626672642827</v>
+        <v>0.5634292266891182</v>
       </c>
       <c r="Y5">
-        <v>-0.6069198660005547</v>
+        <v>-0.6268864254253902</v>
       </c>
       <c r="Z5">
         <v>0.3787554561605658</v>
@@ -1061,10 +1061,10 @@
         <v>-0.008678771916879048</v>
       </c>
       <c r="AB5">
-        <v>0.1495243241618398</v>
+        <v>0.1478284249792152</v>
       </c>
       <c r="AC5">
-        <v>-0.1582030960787189</v>
+        <v>-0.1565071968960942</v>
       </c>
       <c r="AD5">
         <v>15402.1</v>
@@ -1177,10 +1177,10 @@
         <v>-0.1832079021636877</v>
       </c>
       <c r="X6">
-        <v>0.2526117338039647</v>
+        <v>0.2579897615934156</v>
       </c>
       <c r="Y6">
-        <v>-0.4358196359676524</v>
+        <v>-0.4411976637571033</v>
       </c>
       <c r="Z6">
         <v>0.3986128110975112</v>
@@ -1189,10 +1189,10 @@
         <v>-0.06859445124439005</v>
       </c>
       <c r="AB6">
-        <v>0.1228134620911099</v>
+        <v>0.1210345123796915</v>
       </c>
       <c r="AC6">
-        <v>-0.1914079133354999</v>
+        <v>-0.1896289636240815</v>
       </c>
       <c r="AD6">
         <v>2234.7</v>
@@ -1492,37 +1492,37 @@
         <v>0.289489136817381</v>
       </c>
       <c r="F2">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="G2">
         <v>605</v>
       </c>
       <c r="H2">
-        <v>770.239033392186</v>
+        <v>714.241115877452</v>
       </c>
       <c r="I2">
         <v>775.8</v>
       </c>
       <c r="J2">
-        <v>873.354033392186</v>
+        <v>876.961115877452</v>
       </c>
       <c r="K2">
         <v>246.5</v>
       </c>
       <c r="L2">
-        <v>178.815</v>
+        <v>238.42</v>
       </c>
       <c r="M2">
-        <v>0.111737099844195</v>
+        <v>0.109775889557913</v>
       </c>
       <c r="N2">
-        <v>0.1010208831853</v>
+        <v>0.09818557737367439</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.131542587129593</v>
+        <v>0.130848015958074</v>
       </c>
       <c r="T2">
-        <v>0.121840890107975</v>
+        <v>0.129513524130103</v>
       </c>
       <c r="U2">
         <v>1.209464339267</v>
       </c>
       <c r="V2">
-        <v>1.10808543571025</v>
+        <v>1.19618546947837</v>
       </c>
       <c r="W2">
-        <v>4.669918890427272</v>
+        <v>4.509777866529877</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1556,16 +1556,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>605</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1760,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1036300515677293</v>
+        <v>0.1015354405090307</v>
       </c>
       <c r="C2">
-        <v>923.1092947757381</v>
+        <v>920.8111057619672</v>
       </c>
       <c r="D2">
-        <v>847.4092947757381</v>
+        <v>845.1111057619671</v>
       </c>
       <c r="E2">
         <v>-246.5</v>
@@ -1811,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1036300515677293</v>
+        <v>0.1015354405090307</v>
       </c>
       <c r="T2">
         <v>0.9177893627711251</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1842,13 +1842,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.1034558854542803</v>
+        <v>0.1013658825399108</v>
       </c>
       <c r="C3">
-        <v>916.2780377737896</v>
+        <v>913.8525490265121</v>
       </c>
       <c r="D3">
-        <v>849.0930377737895</v>
+        <v>846.667549026512</v>
       </c>
       <c r="E3">
         <v>-237.985</v>
@@ -1875,37 +1875,37 @@
         <v>24.3</v>
       </c>
       <c r="M3">
-        <v>0.1932905</v>
+        <v>0.137943</v>
       </c>
       <c r="N3">
-        <v>24.1067095</v>
+        <v>24.162057</v>
       </c>
       <c r="O3">
-        <v>5.30347609</v>
+        <v>5.31565254</v>
       </c>
       <c r="P3">
-        <v>18.80323341</v>
+        <v>18.84640446</v>
       </c>
       <c r="Q3">
-        <v>28.40323341</v>
+        <v>28.44640446</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.1043220459134144</v>
+        <v>0.1022621439797079</v>
       </c>
       <c r="T3">
         <v>0.9250204304778067</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>125.7175081030883</v>
+        <v>176.1597181444509</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1924,13 +1924,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.1032817193408312</v>
+        <v>0.1011963245707909</v>
       </c>
       <c r="C4">
-        <v>909.4534850519181</v>
+        <v>906.8997358800468</v>
       </c>
       <c r="D4">
-        <v>850.783485051918</v>
+        <v>848.2297358800467</v>
       </c>
       <c r="E4">
         <v>-229.47</v>
@@ -1957,37 +1957,37 @@
         <v>24.3</v>
       </c>
       <c r="M4">
-        <v>0.3865810000000001</v>
+        <v>0.275886</v>
       </c>
       <c r="N4">
-        <v>23.913419</v>
+        <v>24.024114</v>
       </c>
       <c r="O4">
-        <v>5.26095218</v>
+        <v>5.285305080000001</v>
       </c>
       <c r="P4">
-        <v>18.65246682</v>
+        <v>18.73880892</v>
       </c>
       <c r="Q4">
-        <v>28.25246682</v>
+        <v>28.33880892</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.1050281625926849</v>
+        <v>0.1030036781334601</v>
       </c>
       <c r="T4">
         <v>0.9323990709948287</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>62.85875405154417</v>
+        <v>88.07985907222547</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.1031075532273822</v>
+        <v>0.1010267666016711</v>
       </c>
       <c r="C5">
-        <v>902.6356767323693</v>
+        <v>899.9526981738391</v>
       </c>
       <c r="D5">
-        <v>852.4806767323693</v>
+        <v>849.797698173839</v>
       </c>
       <c r="E5">
         <v>-220.955</v>
@@ -2039,37 +2039,37 @@
         <v>24.3</v>
       </c>
       <c r="M5">
-        <v>0.5798715</v>
+        <v>0.4138289999999999</v>
       </c>
       <c r="N5">
-        <v>23.7201285</v>
+        <v>23.886171</v>
       </c>
       <c r="O5">
-        <v>5.21842827</v>
+        <v>5.25495762</v>
       </c>
       <c r="P5">
-        <v>18.50170023</v>
+        <v>18.63121338</v>
       </c>
       <c r="Q5">
-        <v>28.10170023</v>
+        <v>28.23121338</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.1057488383787446</v>
+        <v>0.1037605016512073</v>
       </c>
       <c r="T5">
         <v>0.9399298484297275</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>41.90583603436279</v>
+        <v>58.71990604815034</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.1029333871139332</v>
+        <v>0.1008572086325512</v>
       </c>
       <c r="C6">
-        <v>895.8246532581838</v>
+        <v>893.011467995103</v>
       </c>
       <c r="D6">
-        <v>854.1846532581839</v>
+        <v>851.371467995103</v>
       </c>
       <c r="E6">
         <v>-212.44</v>
@@ -2121,37 +2121,37 @@
         <v>24.3</v>
       </c>
       <c r="M6">
-        <v>0.7731620000000001</v>
+        <v>0.551772</v>
       </c>
       <c r="N6">
-        <v>23.526838</v>
+        <v>23.748228</v>
       </c>
       <c r="O6">
-        <v>5.175904360000001</v>
+        <v>5.22461016</v>
       </c>
       <c r="P6">
-        <v>18.35093364</v>
+        <v>18.52361784</v>
       </c>
       <c r="Q6">
-        <v>27.95093364</v>
+        <v>28.12361784</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.1064845282436805</v>
+        <v>0.1045330923255742</v>
       </c>
       <c r="T6">
         <v>0.9476175170611867</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>31.42937702577209</v>
+        <v>44.03992953611274</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -2170,13 +2170,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.1027592210004842</v>
+        <v>0.1006876506634313</v>
       </c>
       <c r="C7">
-        <v>889.020455396406</v>
+        <v>886.0760776691881</v>
       </c>
       <c r="D7">
-        <v>855.895455396406</v>
+        <v>852.9510776691881</v>
       </c>
       <c r="E7">
         <v>-203.925</v>
@@ -2203,37 +2203,37 @@
         <v>24.3</v>
       </c>
       <c r="M7">
-        <v>0.9664525000000002</v>
+        <v>0.689715</v>
       </c>
       <c r="N7">
-        <v>23.3335475</v>
+        <v>23.610285</v>
       </c>
       <c r="O7">
-        <v>5.133380450000001</v>
+        <v>5.1942627</v>
       </c>
       <c r="P7">
-        <v>18.20016705</v>
+        <v>18.4160223</v>
       </c>
       <c r="Q7">
-        <v>27.80016705</v>
+        <v>28.0160223</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.1072357063162992</v>
+        <v>0.1053219480667698</v>
       </c>
       <c r="T7">
         <v>0.955467031348045</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>25.14350162061767</v>
+        <v>35.2319436288902</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.1025850548870352</v>
+        <v>0.1005180926943114</v>
       </c>
       <c r="C8">
-        <v>882.2231242413367</v>
+        <v>879.1465597617907</v>
       </c>
       <c r="D8">
-        <v>857.6131242413367</v>
+        <v>854.5365597617907</v>
       </c>
       <c r="E8">
         <v>-195.41</v>
@@ -2285,37 +2285,37 @@
         <v>24.3</v>
       </c>
       <c r="M8">
-        <v>1.159743</v>
+        <v>0.8276579999999999</v>
       </c>
       <c r="N8">
-        <v>23.140257</v>
+        <v>23.472342</v>
       </c>
       <c r="O8">
-        <v>5.090856540000001</v>
+        <v>5.163915240000001</v>
       </c>
       <c r="P8">
-        <v>18.04940046</v>
+        <v>18.30842676</v>
       </c>
       <c r="Q8">
-        <v>27.64940046</v>
+        <v>27.90842676</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.1080028669011013</v>
+        <v>0.1061275879726717</v>
       </c>
       <c r="T8">
         <v>0.9634835565771768</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>20.9529180171814</v>
+        <v>29.35995302407517</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.1024108887735862</v>
+        <v>0.1003485347251916</v>
       </c>
       <c r="C9">
-        <v>875.4327012178234</v>
+        <v>872.2229470811934</v>
       </c>
       <c r="D9">
-        <v>859.3377012178233</v>
+        <v>856.1279470811934</v>
       </c>
       <c r="E9">
         <v>-186.895</v>
@@ -2367,37 +2367,37 @@
         <v>24.3</v>
       </c>
       <c r="M9">
-        <v>1.3530335</v>
+        <v>0.965601</v>
       </c>
       <c r="N9">
-        <v>22.9469665</v>
+        <v>23.334399</v>
       </c>
       <c r="O9">
-        <v>5.048332630000001</v>
+        <v>5.13356778</v>
       </c>
       <c r="P9">
-        <v>17.89863387</v>
+        <v>18.20083122</v>
       </c>
       <c r="Q9">
-        <v>27.49863387</v>
+        <v>27.80083122</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.108786525562996</v>
+        <v>0.1069505534679479</v>
       </c>
       <c r="T9">
         <v>0.9716724801983332</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>17.95964401472691</v>
+        <v>25.16567402063585</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2416,13 +2416,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.1022367226601372</v>
+        <v>0.1001789767560717</v>
       </c>
       <c r="C10">
-        <v>868.6492280845903</v>
+        <v>865.3052726805284</v>
       </c>
       <c r="D10">
-        <v>861.0692280845902</v>
+        <v>857.7252726805284</v>
       </c>
       <c r="E10">
         <v>-178.38</v>
@@ -2449,37 +2449,37 @@
         <v>24.3</v>
       </c>
       <c r="M10">
-        <v>1.546324</v>
+        <v>1.103544</v>
       </c>
       <c r="N10">
-        <v>22.753676</v>
+        <v>23.196456</v>
       </c>
       <c r="O10">
-        <v>5.00580872</v>
+        <v>5.10322032</v>
       </c>
       <c r="P10">
-        <v>17.74786728</v>
+        <v>18.09323568</v>
       </c>
       <c r="Q10">
-        <v>27.34786728</v>
+        <v>27.69323568</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1095872202827579</v>
+        <v>0.1077914095174693</v>
       </c>
       <c r="T10">
         <v>0.9800394238982101</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>15.71468851288604</v>
+        <v>22.01996476805637</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2498,13 +2498,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.1020625565466882</v>
+        <v>0.1000094187869519</v>
       </c>
       <c r="C11">
-        <v>861.872746937609</v>
+        <v>858.3935698600649</v>
       </c>
       <c r="D11">
-        <v>862.807746937609</v>
+        <v>859.3285698600648</v>
       </c>
       <c r="E11">
         <v>-169.865</v>
@@ -2531,37 +2531,37 @@
         <v>24.3</v>
       </c>
       <c r="M11">
-        <v>1.7396145</v>
+        <v>1.241487</v>
       </c>
       <c r="N11">
-        <v>22.5603855</v>
+        <v>23.058513</v>
       </c>
       <c r="O11">
-        <v>4.96328481</v>
+        <v>5.07287286</v>
       </c>
       <c r="P11">
-        <v>17.59710069</v>
+        <v>17.98564014</v>
       </c>
       <c r="Q11">
-        <v>27.19710069</v>
+        <v>27.58564014</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1104055126886684</v>
+        <v>0.1086507459197273</v>
       </c>
       <c r="T11">
         <v>0.9885902564706119</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>13.96861201145426</v>
+        <v>19.57330201605011</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2580,13 +2580,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.1020131904332392</v>
+        <v>0.09983986081783199</v>
       </c>
       <c r="C12">
-        <v>853.8517950630289</v>
+        <v>851.487872169523</v>
       </c>
       <c r="D12">
-        <v>863.3017950630289</v>
+        <v>860.937872169523</v>
       </c>
       <c r="E12">
         <v>-161.35</v>
@@ -2613,45 +2613,45 @@
         <v>24.3</v>
       </c>
       <c r="M12">
-        <v>2.069145</v>
+        <v>1.37943</v>
       </c>
       <c r="N12">
-        <v>22.230855</v>
+        <v>22.92057</v>
       </c>
       <c r="O12">
-        <v>4.890788100000001</v>
+        <v>5.042525400000001</v>
       </c>
       <c r="P12">
-        <v>17.3400669</v>
+        <v>17.8780446</v>
       </c>
       <c r="Q12">
-        <v>26.9400669</v>
+        <v>27.4780446</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1112419893702658</v>
+        <v>0.10952917868648</v>
       </c>
       <c r="T12">
         <v>0.9973311075446226</v>
       </c>
       <c r="U12">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y12">
-        <v>11.74398120963006</v>
+        <v>17.6159718144451</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2662,13 +2662,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.1018515043197902</v>
+        <v>0.09967030284871212</v>
       </c>
       <c r="C13">
-        <v>846.9588923532584</v>
+        <v>844.5882134104152</v>
       </c>
       <c r="D13">
-        <v>864.9238923532583</v>
+        <v>862.5532134104151</v>
       </c>
       <c r="E13">
         <v>-152.835</v>
@@ -2695,45 +2695,45 @@
         <v>24.3</v>
       </c>
       <c r="M13">
-        <v>2.276059500000001</v>
+        <v>1.517373</v>
       </c>
       <c r="N13">
-        <v>22.0239405</v>
+        <v>22.782627</v>
       </c>
       <c r="O13">
-        <v>4.84526691</v>
+        <v>5.01217794</v>
       </c>
       <c r="P13">
-        <v>17.17867359</v>
+        <v>17.77044906</v>
       </c>
       <c r="Q13">
-        <v>26.77867359</v>
+        <v>27.37044906</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1120972632806632</v>
+        <v>0.1104273515154069</v>
       </c>
       <c r="T13">
         <v>1.006268382238274</v>
       </c>
       <c r="U13">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y13">
-        <v>10.67634655420915</v>
+        <v>16.01451983131373</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2744,13 +2744,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.1018957382063412</v>
+        <v>0.09950074487959225</v>
       </c>
       <c r="C14">
-        <v>837.9995155916826</v>
+        <v>837.6946276384122</v>
       </c>
       <c r="D14">
-        <v>864.4795155916825</v>
+        <v>864.1746276384121</v>
       </c>
       <c r="E14">
         <v>-144.32</v>
@@ -2777,45 +2777,45 @@
         <v>24.3</v>
       </c>
       <c r="M14">
-        <v>2.70777</v>
+        <v>1.655316</v>
       </c>
       <c r="N14">
-        <v>21.59223</v>
+        <v>22.644684</v>
       </c>
       <c r="O14">
-        <v>4.7502906</v>
+        <v>4.98183048</v>
       </c>
       <c r="P14">
-        <v>16.8419394</v>
+        <v>17.66285352</v>
       </c>
       <c r="Q14">
-        <v>26.4419394</v>
+        <v>27.26285352</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1129719752344787</v>
+        <v>0.111345937363173</v>
       </c>
       <c r="T14">
         <v>1.015408776811327</v>
       </c>
       <c r="U14">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y14">
-        <v>8.97417432056637</v>
+        <v>14.67997651203758</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2826,13 +2826,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.1017512120928922</v>
+        <v>0.09949342691047239</v>
       </c>
       <c r="C15">
-        <v>830.9381293511922</v>
+        <v>829.2497436485897</v>
       </c>
       <c r="D15">
-        <v>865.9331293511922</v>
+        <v>864.2447436485897</v>
       </c>
       <c r="E15">
         <v>-135.805</v>
@@ -2859,45 +2859,45 @@
         <v>24.3</v>
       </c>
       <c r="M15">
-        <v>2.9334175</v>
+        <v>1.970371</v>
       </c>
       <c r="N15">
-        <v>21.3665825</v>
+        <v>22.329629</v>
       </c>
       <c r="O15">
-        <v>4.70064815</v>
+        <v>4.91251838</v>
       </c>
       <c r="P15">
-        <v>16.66593435</v>
+        <v>17.41711062</v>
       </c>
       <c r="Q15">
-        <v>26.26593435</v>
+        <v>27.01711062</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1138667955090715</v>
+        <v>0.1122856401269798</v>
       </c>
       <c r="T15">
         <v>1.024759295397553</v>
       </c>
       <c r="U15">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y15">
-        <v>8.283853218984341</v>
+        <v>12.33270282601601</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2908,13 +2908,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.1017268059794432</v>
+        <v>0.0993363489413525</v>
       </c>
       <c r="C16">
-        <v>822.6690835904228</v>
+        <v>822.2425103533823</v>
       </c>
       <c r="D16">
-        <v>866.1790835904228</v>
+        <v>865.7525103533823</v>
       </c>
       <c r="E16">
         <v>-127.29</v>
@@ -2941,45 +2941,45 @@
         <v>24.3</v>
       </c>
       <c r="M16">
-        <v>3.290196</v>
+        <v>2.121938</v>
       </c>
       <c r="N16">
-        <v>21.009804</v>
+        <v>22.178062</v>
       </c>
       <c r="O16">
-        <v>4.622156879999999</v>
+        <v>4.87917364</v>
       </c>
       <c r="P16">
-        <v>16.38764712</v>
+        <v>17.29888836</v>
       </c>
       <c r="Q16">
-        <v>25.98764712</v>
+        <v>26.89888836</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1147824255574921</v>
+        <v>0.1132471964434331</v>
       </c>
       <c r="T16">
         <v>1.034327267904389</v>
       </c>
       <c r="U16">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>7.385578245186608</v>
+        <v>11.45179548130058</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.1015908598659942</v>
+        <v>0.09917927097223266</v>
       </c>
       <c r="C17">
-        <v>815.5266503201287</v>
+        <v>815.2405471706118</v>
       </c>
       <c r="D17">
-        <v>867.5516503201287</v>
+        <v>867.2655471706117</v>
       </c>
       <c r="E17">
         <v>-118.775</v>
@@ -3023,45 +3023,45 @@
         <v>24.3</v>
       </c>
       <c r="M17">
-        <v>3.52521</v>
+        <v>2.273505</v>
       </c>
       <c r="N17">
-        <v>20.77479</v>
+        <v>22.026495</v>
       </c>
       <c r="O17">
-        <v>4.5704538</v>
+        <v>4.8458289</v>
       </c>
       <c r="P17">
-        <v>16.2043362</v>
+        <v>17.1806661</v>
       </c>
       <c r="Q17">
-        <v>25.8043362</v>
+        <v>26.7806661</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1157195998423461</v>
+        <v>0.1142313776143914</v>
       </c>
       <c r="T17">
         <v>1.044120369176092</v>
       </c>
       <c r="U17">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>6.893206362174168</v>
+        <v>10.68834244921388</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -3072,13 +3072,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.1014549137525452</v>
+        <v>0.09929675300311278</v>
       </c>
       <c r="C18">
-        <v>808.3885739536989</v>
+        <v>805.593416128168</v>
       </c>
       <c r="D18">
-        <v>868.9285739536989</v>
+        <v>866.1334161281679</v>
       </c>
       <c r="E18">
         <v>-110.26</v>
@@ -3105,45 +3105,45 @@
         <v>24.3</v>
       </c>
       <c r="M18">
-        <v>3.760224</v>
+        <v>2.7248</v>
       </c>
       <c r="N18">
-        <v>20.539776</v>
+        <v>21.5752</v>
       </c>
       <c r="O18">
-        <v>4.51875072</v>
+        <v>4.746544000000001</v>
       </c>
       <c r="P18">
-        <v>16.02102528</v>
+        <v>16.828656</v>
       </c>
       <c r="Q18">
-        <v>25.62102528</v>
+        <v>26.428656</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.116679087800649</v>
+        <v>0.1152389916703724</v>
       </c>
       <c r="T18">
         <v>1.054146639525692</v>
       </c>
       <c r="U18">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y18">
-        <v>6.462380964538283</v>
+        <v>8.918085731062831</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -3154,13 +3154,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1015178676390962</v>
+        <v>0.09915683503399293</v>
       </c>
       <c r="C19">
-        <v>799.2354055954294</v>
+        <v>798.4270907006214</v>
       </c>
       <c r="D19">
-        <v>868.2904055954293</v>
+        <v>867.4820907006214</v>
       </c>
       <c r="E19">
         <v>-101.745</v>
@@ -3187,45 +3187,45 @@
         <v>24.3</v>
       </c>
       <c r="M19">
-        <v>4.2123705</v>
+        <v>2.8951</v>
       </c>
       <c r="N19">
-        <v>20.0876295</v>
+        <v>21.4049</v>
       </c>
       <c r="O19">
-        <v>4.41927849</v>
+        <v>4.709078000000001</v>
       </c>
       <c r="P19">
-        <v>15.66835101</v>
+        <v>16.695822</v>
       </c>
       <c r="Q19">
-        <v>25.26835101</v>
+        <v>26.295822</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1176616959507183</v>
+        <v>0.116270885583124</v>
       </c>
       <c r="T19">
         <v>1.064414506751187</v>
       </c>
       <c r="U19">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y19">
-        <v>5.768723335233688</v>
+        <v>8.393492452765017</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1013936215256472</v>
+        <v>0.09901691706487305</v>
       </c>
       <c r="C20">
-        <v>791.9807998434749</v>
+        <v>791.2649719224643</v>
       </c>
       <c r="D20">
-        <v>869.5507998434748</v>
+        <v>868.8349719224642</v>
       </c>
       <c r="E20">
         <v>-93.23000000000002</v>
@@ -3269,45 +3269,45 @@
         <v>24.3</v>
       </c>
       <c r="M20">
-        <v>4.460157</v>
+        <v>3.065399999999999</v>
       </c>
       <c r="N20">
-        <v>19.839843</v>
+        <v>21.2346</v>
       </c>
       <c r="O20">
-        <v>4.36476546</v>
+        <v>4.671612000000001</v>
       </c>
       <c r="P20">
-        <v>15.47507754</v>
+        <v>16.562988</v>
       </c>
       <c r="Q20">
-        <v>25.07507754</v>
+        <v>26.162988</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1186682701532283</v>
+        <v>0.1173279476400891</v>
       </c>
       <c r="T20">
         <v>1.074932809762669</v>
       </c>
       <c r="U20">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y20">
-        <v>5.448238705498484</v>
+        <v>7.927187316500296</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3318,13 +3318,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1012693754121982</v>
+        <v>0.09904001909575318</v>
       </c>
       <c r="C21">
-        <v>784.7298585405928</v>
+        <v>782.5263052400484</v>
       </c>
       <c r="D21">
-        <v>870.8148585405927</v>
+        <v>868.6113052400483</v>
       </c>
       <c r="E21">
         <v>-84.715</v>
@@ -3351,45 +3351,45 @@
         <v>24.3</v>
       </c>
       <c r="M21">
-        <v>4.7079435</v>
+        <v>3.4136635</v>
       </c>
       <c r="N21">
-        <v>19.5920565</v>
+        <v>20.8863365</v>
       </c>
       <c r="O21">
-        <v>4.31025243</v>
+        <v>4.59499403</v>
       </c>
       <c r="P21">
-        <v>15.28180407</v>
+        <v>16.29134247</v>
       </c>
       <c r="Q21">
-        <v>24.88180407</v>
+        <v>25.89134247</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1196996980397508</v>
+        <v>0.118411109994757</v>
       </c>
       <c r="T21">
         <v>1.08571082395962</v>
       </c>
       <c r="U21">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y21">
-        <v>5.161489299945933</v>
+        <v>7.118452067697943</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3400,13 +3400,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1011451292987492</v>
+        <v>0.09890868112663333</v>
       </c>
       <c r="C22">
-        <v>777.4825976909849</v>
+        <v>775.2844145342647</v>
       </c>
       <c r="D22">
-        <v>872.0825976909848</v>
+        <v>869.8844145342646</v>
       </c>
       <c r="E22">
         <v>-76.19999999999999</v>
@@ -3433,45 +3433,45 @@
         <v>24.3</v>
       </c>
       <c r="M22">
-        <v>4.955730000000001</v>
+        <v>3.59333</v>
       </c>
       <c r="N22">
-        <v>19.34427</v>
+        <v>20.70667</v>
       </c>
       <c r="O22">
-        <v>4.2557394</v>
+        <v>4.5554674</v>
       </c>
       <c r="P22">
-        <v>15.0885306</v>
+        <v>16.1512026</v>
       </c>
       <c r="Q22">
-        <v>24.6885306</v>
+        <v>25.7512026</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1207569116234365</v>
+        <v>0.1195213514082916</v>
       </c>
       <c r="T22">
         <v>1.096758288511495</v>
       </c>
       <c r="U22">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y22">
-        <v>4.903414834948634</v>
+        <v>6.762529464313046</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3482,13 +3482,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1010208831853001</v>
+        <v>0.09877734315751344</v>
       </c>
       <c r="C23">
-        <v>770.2390333921855</v>
+        <v>768.0462612570473</v>
       </c>
       <c r="D23">
-        <v>873.3540333921856</v>
+        <v>871.1612612570473</v>
       </c>
       <c r="E23">
         <v>-67.685</v>
@@ -3515,45 +3515,45 @@
         <v>24.3</v>
       </c>
       <c r="M23">
-        <v>5.2035165</v>
+        <v>3.7729965</v>
       </c>
       <c r="N23">
-        <v>19.0964835</v>
+        <v>20.5270035</v>
       </c>
       <c r="O23">
-        <v>4.201226370000001</v>
+        <v>4.51594077</v>
       </c>
       <c r="P23">
-        <v>14.89525713</v>
+        <v>16.01106273</v>
       </c>
       <c r="Q23">
-        <v>24.49525713</v>
+        <v>25.61106273</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1218408901079749</v>
+        <v>0.1206597001993841</v>
       </c>
       <c r="T23">
         <v>1.108085435710252</v>
       </c>
       <c r="U23">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y23">
-        <v>4.669918890427272</v>
+        <v>6.44050425172671</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3564,13 +3564,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1069541170718512</v>
+        <v>0.09890340518839359</v>
       </c>
       <c r="C24">
-        <v>704.877300492628</v>
+        <v>758.3056341998246</v>
       </c>
       <c r="D24">
-        <v>816.507300492628</v>
+        <v>869.9356341998246</v>
       </c>
       <c r="E24">
         <v>-59.16999999999999</v>
@@ -3597,45 +3597,45 @@
         <v>24.3</v>
       </c>
       <c r="M24">
-        <v>12.064052</v>
+        <v>4.233658</v>
       </c>
       <c r="N24">
-        <v>12.235948</v>
+        <v>20.066342</v>
       </c>
       <c r="O24">
-        <v>2.69190856</v>
+        <v>4.41459524</v>
       </c>
       <c r="P24">
-        <v>9.544039440000001</v>
+        <v>15.65174676</v>
       </c>
       <c r="Q24">
-        <v>19.14403944</v>
+        <v>25.25174676</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1229526629126297</v>
+        <v>0.1218272374210174</v>
       </c>
       <c r="T24">
         <v>1.119703022580773</v>
       </c>
       <c r="U24">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y24">
-        <v>2.014248612323621</v>
+        <v>5.739717284674388</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3646,13 +3646,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1090427309584022</v>
+        <v>0.0987837672192737</v>
       </c>
       <c r="C25">
-        <v>678.0727408803085</v>
+        <v>750.9537203748361</v>
       </c>
       <c r="D25">
-        <v>798.2177408803085</v>
+        <v>871.098720374836</v>
       </c>
       <c r="E25">
         <v>-50.655</v>
@@ -3679,45 +3679,45 @@
         <v>24.3</v>
       </c>
       <c r="M25">
-        <v>14.727544</v>
+        <v>4.426097</v>
       </c>
       <c r="N25">
-        <v>9.572456000000001</v>
+        <v>19.873903</v>
       </c>
       <c r="O25">
-        <v>2.10594032</v>
+        <v>4.372258660000001</v>
       </c>
       <c r="P25">
-        <v>7.466515680000001</v>
+        <v>15.50164434</v>
       </c>
       <c r="Q25">
-        <v>17.06651568</v>
+        <v>25.10164434</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1240933129329898</v>
+        <v>0.1230251002847711</v>
       </c>
       <c r="T25">
         <v>1.131622364954424</v>
       </c>
       <c r="U25">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y25">
-        <v>1.649969607967221</v>
+        <v>5.490164359253764</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3728,13 +3728,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1092780648449532</v>
+        <v>0.09866412925015385</v>
       </c>
       <c r="C26">
-        <v>667.5482033103244</v>
+        <v>743.6049207584018</v>
       </c>
       <c r="D26">
-        <v>796.2082033103244</v>
+        <v>872.2649207584018</v>
       </c>
       <c r="E26">
         <v>-42.14000000000001</v>
@@ -3761,45 +3761,45 @@
         <v>24.3</v>
       </c>
       <c r="M26">
-        <v>15.367872</v>
+        <v>4.618536</v>
       </c>
       <c r="N26">
-        <v>8.932128000000001</v>
+        <v>19.681464</v>
       </c>
       <c r="O26">
-        <v>1.96506816</v>
+        <v>4.32992208</v>
       </c>
       <c r="P26">
-        <v>6.96705984</v>
+        <v>15.35154192</v>
       </c>
       <c r="Q26">
-        <v>16.56705984</v>
+        <v>24.95154192</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1252639800591489</v>
+        <v>0.1242544858554656</v>
       </c>
       <c r="T26">
         <v>1.143855374232644</v>
       </c>
       <c r="U26">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y26">
-        <v>1.58122087430192</v>
+        <v>5.261407510951523</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3810,13 +3810,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1095133987315041</v>
+        <v>0.09854449128103394</v>
       </c>
       <c r="C27">
-        <v>657.0337584761272</v>
+        <v>736.2592478749121</v>
       </c>
       <c r="D27">
-        <v>794.2087584761272</v>
+        <v>873.4342478749121</v>
       </c>
       <c r="E27">
         <v>-33.625</v>
@@ -3843,45 +3843,45 @@
         <v>24.3</v>
       </c>
       <c r="M27">
-        <v>16.0082</v>
+        <v>4.810975</v>
       </c>
       <c r="N27">
-        <v>8.291799999999999</v>
+        <v>19.489025</v>
       </c>
       <c r="O27">
-        <v>1.824196</v>
+        <v>4.2875855</v>
       </c>
       <c r="P27">
-        <v>6.467603999999999</v>
+        <v>15.2014395</v>
       </c>
       <c r="Q27">
-        <v>16.067604</v>
+        <v>24.8014395</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1264658649753388</v>
+        <v>0.1255166550413786</v>
       </c>
       <c r="T27">
         <v>1.156414597091618</v>
       </c>
       <c r="U27">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y27">
-        <v>1.517972039329843</v>
+        <v>5.050951210513461</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3892,13 +3892,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1184994659276077</v>
+        <v>0.0984248533119141</v>
       </c>
       <c r="C28">
-        <v>579.026544403357</v>
+        <v>728.9167143160042</v>
       </c>
       <c r="D28">
-        <v>724.7165444033569</v>
+        <v>874.6067143160042</v>
       </c>
       <c r="E28">
         <v>-25.10999999999999</v>
@@ -3925,45 +3925,45 @@
         <v>24.3</v>
       </c>
       <c r="M28">
-        <v>25.570545</v>
+        <v>5.003414</v>
       </c>
       <c r="N28">
-        <v>-1.270544999999998</v>
+        <v>19.296586</v>
       </c>
       <c r="O28">
-        <v>-0.2795198999999997</v>
+        <v>4.245248920000001</v>
       </c>
       <c r="P28">
-        <v>-0.9910250999999988</v>
+        <v>15.05133708</v>
       </c>
       <c r="Q28">
-        <v>8.6089749</v>
+        <v>24.65133708</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1280375652463189</v>
+        <v>0.126812936907992</v>
       </c>
       <c r="T28">
-        <v>1.172838244401646</v>
+        <v>1.169313258406239</v>
       </c>
       <c r="U28">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V28">
-        <v>0.2090686764791286</v>
+        <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.09135256786666064</v>
+        <v>0.017628</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y28">
-        <v>0.9503121658142211</v>
+        <v>4.856683856262944</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1194964659276078</v>
+        <v>0.09830521534279422</v>
       </c>
       <c r="C29">
-        <v>563.5436850042278</v>
+        <v>721.5773327410186</v>
       </c>
       <c r="D29">
-        <v>717.7486850042277</v>
+        <v>875.7823327410185</v>
       </c>
       <c r="E29">
         <v>-16.595</v>
@@ -4007,45 +4007,45 @@
         <v>24.3</v>
       </c>
       <c r="M29">
-        <v>26.5540275</v>
+        <v>5.195853</v>
       </c>
       <c r="N29">
-        <v>-2.254027499999996</v>
+        <v>19.104147</v>
       </c>
       <c r="O29">
-        <v>-0.4958860499999991</v>
+        <v>4.20291234</v>
       </c>
       <c r="P29">
-        <v>-1.758141449999997</v>
+        <v>14.90123466</v>
       </c>
       <c r="Q29">
-        <v>7.841858550000001</v>
+        <v>24.50123466</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1295750661401041</v>
+        <v>0.1281447333462935</v>
       </c>
       <c r="T29">
-        <v>1.188904521722216</v>
+        <v>1.182565307702083</v>
       </c>
       <c r="U29">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V29">
-        <v>0.2013253921650869</v>
+        <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.09224691720493247</v>
+        <v>0.017628</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y29">
-        <v>0.9151154189322129</v>
+        <v>4.676806676401354</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -4056,13 +4056,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1204934659276078</v>
+        <v>0.09818557737367435</v>
       </c>
       <c r="C30">
-        <v>548.193536004155</v>
+        <v>714.2411158774516</v>
       </c>
       <c r="D30">
-        <v>710.913536004155</v>
+        <v>876.9611158774517</v>
       </c>
       <c r="E30">
         <v>-8.079999999999984</v>
@@ -4089,45 +4089,45 @@
         <v>24.3</v>
       </c>
       <c r="M30">
-        <v>27.53751</v>
+        <v>5.388292</v>
       </c>
       <c r="N30">
-        <v>-3.23751</v>
+        <v>18.911708</v>
       </c>
       <c r="O30">
-        <v>-0.7122522000000001</v>
+        <v>4.16057576</v>
       </c>
       <c r="P30">
-        <v>-2.5252578</v>
+        <v>14.75113224</v>
       </c>
       <c r="Q30">
-        <v>7.074742199999998</v>
+        <v>24.35113224</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.13115527539205</v>
+        <v>0.1295135241301033</v>
       </c>
       <c r="T30">
-        <v>1.205417084523914</v>
+        <v>1.196185469478366</v>
       </c>
       <c r="U30">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V30">
-        <v>0.1941351995877623</v>
+        <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.09307738444761345</v>
+        <v>0.017628</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y30">
-        <v>0.8824327253989195</v>
+        <v>4.509777866529877</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1214904659276077</v>
+        <v>0.1188574040222989</v>
       </c>
       <c r="C31">
-        <v>532.9723417493054</v>
+        <v>540.2568048182629</v>
       </c>
       <c r="D31">
-        <v>704.2073417493053</v>
+        <v>711.4918048182628</v>
       </c>
       <c r="E31">
         <v>0.4349999999999739</v>
@@ -4171,37 +4171,37 @@
         <v>24.3</v>
       </c>
       <c r="M31">
-        <v>28.52099249999999</v>
+        <v>26.915915</v>
       </c>
       <c r="N31">
-        <v>-4.220992499999994</v>
+        <v>-2.615914999999998</v>
       </c>
       <c r="O31">
-        <v>-0.9286183499999987</v>
+        <v>-0.5755012999999994</v>
       </c>
       <c r="P31">
-        <v>-3.292374149999995</v>
+        <v>-2.040413699999998</v>
       </c>
       <c r="Q31">
-        <v>6.307625850000003</v>
+        <v>7.559586299999999</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1327799975806704</v>
+        <v>0.131726389263334</v>
       </c>
       <c r="T31">
-        <v>1.222394789939743</v>
+        <v>1.218204598669031</v>
       </c>
       <c r="U31">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V31">
-        <v>0.1874408823605981</v>
+        <v>0.198618549657331</v>
       </c>
       <c r="W31">
-        <v>0.09385057808735091</v>
+        <v>0.08735057808735092</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.8520040107299914</v>
+        <v>0.9028115893515045</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -4220,13 +4220,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1224874659276077</v>
+        <v>0.1198544040222989</v>
       </c>
       <c r="C32">
-        <v>517.8764869729771</v>
+        <v>525.3254405342968</v>
       </c>
       <c r="D32">
-        <v>697.626486972977</v>
+        <v>705.0754405342967</v>
       </c>
       <c r="E32">
         <v>8.949999999999989</v>
@@ -4253,37 +4253,37 @@
         <v>24.3</v>
       </c>
       <c r="M32">
-        <v>29.504475</v>
+        <v>27.84405</v>
       </c>
       <c r="N32">
-        <v>-5.204474999999995</v>
+        <v>-3.544049999999999</v>
       </c>
       <c r="O32">
-        <v>-1.144984499999999</v>
+        <v>-0.7796909999999997</v>
       </c>
       <c r="P32">
-        <v>-4.059490499999996</v>
+        <v>-2.764358999999999</v>
       </c>
       <c r="Q32">
-        <v>5.540509500000002</v>
+        <v>6.835640999999999</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1344511404032514</v>
+        <v>0.1334753376813816</v>
       </c>
       <c r="T32">
-        <v>1.239857572653168</v>
+        <v>1.23560752150716</v>
       </c>
       <c r="U32">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V32">
-        <v>0.1811928529485782</v>
+        <v>0.19199793133542</v>
       </c>
       <c r="W32">
-        <v>0.09457222548443921</v>
+        <v>0.08807222548443923</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.8236038770389917</v>
+        <v>0.8727178697064544</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4302,13 +4302,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1341718490394424</v>
+        <v>0.1208514040222989</v>
       </c>
       <c r="C33">
-        <v>440.4993782123079</v>
+        <v>510.5087698348211</v>
       </c>
       <c r="D33">
-        <v>628.7643782123079</v>
+        <v>698.773769834821</v>
       </c>
       <c r="E33">
         <v>17.46499999999997</v>
@@ -4335,45 +4335,45 @@
         <v>24.3</v>
       </c>
       <c r="M33">
-        <v>38.7236655</v>
+        <v>28.772185</v>
       </c>
       <c r="N33">
-        <v>-14.42366549999999</v>
+        <v>-4.472184999999996</v>
       </c>
       <c r="O33">
-        <v>-3.173206409999999</v>
+        <v>-0.9838806999999992</v>
       </c>
       <c r="P33">
-        <v>-11.25045909</v>
+        <v>-3.488304299999997</v>
       </c>
       <c r="Q33">
-        <v>-1.650459089999998</v>
+        <v>6.111695700000001</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1376422918755226</v>
+        <v>0.1352749802564741</v>
       </c>
       <c r="T33">
-        <v>1.27320384564247</v>
+        <v>1.253514876891322</v>
       </c>
       <c r="U33">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V33">
-        <v>0.1380551125770881</v>
+        <v>0.1858044496794387</v>
       </c>
       <c r="W33">
-        <v>0.1264473149849412</v>
+        <v>0.08874731498494119</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y33">
-        <v>0.6275232389867639</v>
+        <v>0.8445656803610849</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4384,13 +4384,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1354808490394424</v>
+        <v>0.1218484040222989</v>
       </c>
       <c r="C34">
-        <v>425.1073166131822</v>
+        <v>495.803744711166</v>
       </c>
       <c r="D34">
-        <v>621.8873166131822</v>
+        <v>692.583744711166</v>
       </c>
       <c r="E34">
         <v>25.98000000000002</v>
@@ -4417,45 +4417,45 @@
         <v>24.3</v>
       </c>
       <c r="M34">
-        <v>39.972816</v>
+        <v>29.70032</v>
       </c>
       <c r="N34">
-        <v>-15.672816</v>
+        <v>-5.400320000000001</v>
       </c>
       <c r="O34">
-        <v>-3.44801952</v>
+        <v>-1.1880704</v>
       </c>
       <c r="P34">
-        <v>-12.22479648</v>
+        <v>-4.212249600000001</v>
       </c>
       <c r="Q34">
-        <v>-2.624796480000002</v>
+        <v>5.387750399999997</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1394340902854568</v>
+        <v>0.1371275534955399</v>
       </c>
       <c r="T34">
-        <v>1.291927431607801</v>
+        <v>1.271948919198548</v>
       </c>
       <c r="U34">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V34">
-        <v>0.133740890309054</v>
+        <v>0.1799980606269562</v>
       </c>
       <c r="W34">
-        <v>0.1270802113916618</v>
+        <v>0.08938021139166177</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y34">
-        <v>0.6079131377684275</v>
+        <v>0.8181730028498009</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4466,13 +4466,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1367898490394424</v>
+        <v>0.134323689107323</v>
       </c>
       <c r="C35">
-        <v>409.8640621033242</v>
+        <v>418.1804043460978</v>
       </c>
       <c r="D35">
-        <v>615.1590621033241</v>
+        <v>623.4754043460978</v>
       </c>
       <c r="E35">
         <v>34.495</v>
@@ -4499,37 +4499,37 @@
         <v>24.3</v>
       </c>
       <c r="M35">
-        <v>41.2219665</v>
+        <v>39.395499</v>
       </c>
       <c r="N35">
-        <v>-16.9219665</v>
+        <v>-15.095499</v>
       </c>
       <c r="O35">
-        <v>-3.72283263</v>
+        <v>-3.32100978</v>
       </c>
       <c r="P35">
-        <v>-13.19913387</v>
+        <v>-11.77448922</v>
       </c>
       <c r="Q35">
-        <v>-3.599133870000003</v>
+        <v>-2.174489220000002</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1412793752150905</v>
+        <v>0.1408000320328228</v>
       </c>
       <c r="T35">
-        <v>1.311209930587022</v>
+        <v>1.30849194125083</v>
       </c>
       <c r="U35">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V35">
-        <v>0.1296881360572645</v>
+        <v>0.1357007814522161</v>
       </c>
       <c r="W35">
-        <v>0.1276747504403993</v>
+        <v>0.1211747504403993</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.5894915275330206</v>
+        <v>0.6168217338737099</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1380988490394424</v>
+        <v>0.135632689107323</v>
       </c>
       <c r="C36">
-        <v>394.7648365066178</v>
+        <v>403.205244983894</v>
       </c>
       <c r="D36">
-        <v>608.5748365066178</v>
+        <v>617.015244983894</v>
       </c>
       <c r="E36">
         <v>43.01000000000005</v>
@@ -4581,37 +4581,37 @@
         <v>24.3</v>
       </c>
       <c r="M36">
-        <v>42.47111700000001</v>
+        <v>40.589302</v>
       </c>
       <c r="N36">
-        <v>-18.17111700000001</v>
+        <v>-16.289302</v>
       </c>
       <c r="O36">
-        <v>-3.997645740000001</v>
+        <v>-3.583646440000001</v>
       </c>
       <c r="P36">
-        <v>-14.17347126</v>
+        <v>-12.70565556</v>
       </c>
       <c r="Q36">
-        <v>-4.573471260000007</v>
+        <v>-3.105655560000004</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1431805778698646</v>
+        <v>0.1427924567605928</v>
       </c>
       <c r="T36">
-        <v>1.331076747717128</v>
+        <v>1.328317576724327</v>
       </c>
       <c r="U36">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V36">
-        <v>0.1258737791144038</v>
+        <v>0.1317095819977392</v>
       </c>
       <c r="W36">
-        <v>0.128234316603917</v>
+        <v>0.121734316603917</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.5721535414291081</v>
+        <v>0.5986799181715419</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4630,13 +4630,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1394078490394424</v>
+        <v>0.136941689107323</v>
       </c>
       <c r="C37">
-        <v>379.8050640493852</v>
+        <v>388.3625869802083</v>
       </c>
       <c r="D37">
-        <v>602.1300640493852</v>
+        <v>610.6875869802083</v>
       </c>
       <c r="E37">
         <v>51.52500000000003</v>
@@ -4663,37 +4663,37 @@
         <v>24.3</v>
       </c>
       <c r="M37">
-        <v>43.72026750000001</v>
+        <v>41.783105</v>
       </c>
       <c r="N37">
-        <v>-19.4202675</v>
+        <v>-17.483105</v>
       </c>
       <c r="O37">
-        <v>-4.272458850000001</v>
+        <v>-3.8462831</v>
       </c>
       <c r="P37">
-        <v>-15.14780865</v>
+        <v>-13.6368219</v>
       </c>
       <c r="Q37">
-        <v>-5.547808650000006</v>
+        <v>-4.036821900000001</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1451402790678625</v>
+        <v>0.1448461868646019</v>
       </c>
       <c r="T37">
-        <v>1.351554851528161</v>
+        <v>1.348753231750855</v>
       </c>
       <c r="U37">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V37">
-        <v>0.1222773854254208</v>
+        <v>0.1279464510835181</v>
       </c>
       <c r="W37">
-        <v>0.1287619075580907</v>
+        <v>0.1222619075580908</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.5558062973882765</v>
+        <v>0.581574777652355</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4712,13 +4712,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1407168490394424</v>
+        <v>0.138250689107323</v>
       </c>
       <c r="C38">
-        <v>364.9803607555423</v>
+        <v>373.6483952047245</v>
       </c>
       <c r="D38">
-        <v>595.8203607555422</v>
+        <v>604.4883952047244</v>
       </c>
       <c r="E38">
         <v>60.03999999999996</v>
@@ -4745,37 +4745,37 @@
         <v>24.3</v>
       </c>
       <c r="M38">
-        <v>44.96941799999999</v>
+        <v>42.97690799999999</v>
       </c>
       <c r="N38">
-        <v>-20.66941799999999</v>
+        <v>-18.67690799999999</v>
       </c>
       <c r="O38">
-        <v>-4.547271959999998</v>
+        <v>-4.108919759999998</v>
       </c>
       <c r="P38">
-        <v>-16.12214603999999</v>
+        <v>-14.56798823999999</v>
       </c>
       <c r="Q38">
-        <v>-6.522146039999992</v>
+        <v>-4.967988239999997</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1471612209282978</v>
+        <v>0.1469640960343613</v>
       </c>
       <c r="T38">
-        <v>1.372672896083288</v>
+        <v>1.369827500996962</v>
       </c>
       <c r="U38">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V38">
-        <v>0.1188807913858258</v>
+        <v>0.1243923829978648</v>
       </c>
       <c r="W38">
-        <v>0.1292601879036993</v>
+        <v>0.1227601879036993</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.5403672335719356</v>
+        <v>0.5654199227175674</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4794,13 +4794,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1420258490394424</v>
+        <v>0.139559689107323</v>
       </c>
       <c r="C39">
-        <v>350.2865245016043</v>
+        <v>359.0587967257503</v>
       </c>
       <c r="D39">
-        <v>589.6415245016043</v>
+        <v>598.4137967257502</v>
       </c>
       <c r="E39">
         <v>68.55500000000001</v>
@@ -4827,37 +4827,37 @@
         <v>24.3</v>
       </c>
       <c r="M39">
-        <v>46.2185685</v>
+        <v>44.170711</v>
       </c>
       <c r="N39">
-        <v>-21.9185685</v>
+        <v>-19.870711</v>
       </c>
       <c r="O39">
-        <v>-4.822085070000001</v>
+        <v>-4.371556419999999</v>
       </c>
       <c r="P39">
-        <v>-17.09648343</v>
+        <v>-15.49915458</v>
       </c>
       <c r="Q39">
-        <v>-7.496483430000005</v>
+        <v>-5.899154579999999</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1492463196731915</v>
+        <v>0.1491492404158591</v>
       </c>
       <c r="T39">
-        <v>1.394461354751277</v>
+        <v>1.391570794663581</v>
       </c>
       <c r="U39">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V39">
-        <v>0.1156677970240467</v>
+        <v>0.1210304267006252</v>
       </c>
       <c r="W39">
-        <v>0.1297315341765723</v>
+        <v>0.1232315341765723</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.5257627137456669</v>
+        <v>0.5501383031846601</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4876,13 +4876,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1433348490394424</v>
+        <v>0.140868689107323</v>
       </c>
       <c r="C40">
-        <v>335.7195256841367</v>
+        <v>344.5900727415048</v>
       </c>
       <c r="D40">
-        <v>583.5895256841367</v>
+        <v>592.4600727415047</v>
       </c>
       <c r="E40">
         <v>77.06999999999999</v>
@@ -4909,37 +4909,37 @@
         <v>24.3</v>
       </c>
       <c r="M40">
-        <v>47.467719</v>
+        <v>45.36451399999999</v>
       </c>
       <c r="N40">
-        <v>-23.16771899999999</v>
+        <v>-21.06451399999999</v>
       </c>
       <c r="O40">
-        <v>-5.096898179999999</v>
+        <v>-4.634193079999998</v>
       </c>
       <c r="P40">
-        <v>-18.07082081999999</v>
+        <v>-16.43032091999999</v>
       </c>
       <c r="Q40">
-        <v>-8.470820819999997</v>
+        <v>-6.830320919999995</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1513986796679204</v>
+        <v>0.1514048733257924</v>
       </c>
       <c r="T40">
-        <v>1.416952666924685</v>
+        <v>1.41401548490009</v>
       </c>
       <c r="U40">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V40">
-        <v>0.1126239076286771</v>
+        <v>0.1178454154716614</v>
       </c>
       <c r="W40">
-        <v>0.1301780727508731</v>
+        <v>0.1236780727508731</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.5119268528576232</v>
+        <v>0.5356609794166428</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4958,13 +4958,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1624685275491817</v>
+        <v>0.142177689107323</v>
       </c>
       <c r="C41">
-        <v>251.0722118695918</v>
+        <v>330.2386509883221</v>
       </c>
       <c r="D41">
-        <v>507.4572118695918</v>
+        <v>586.6236509883221</v>
       </c>
       <c r="E41">
         <v>85.58500000000004</v>
@@ -4991,45 +4991,45 @@
         <v>24.3</v>
       </c>
       <c r="M41">
-        <v>63.16256700000001</v>
+        <v>46.558317</v>
       </c>
       <c r="N41">
-        <v>-38.86256700000001</v>
+        <v>-22.258317</v>
       </c>
       <c r="O41">
-        <v>-8.549764740000002</v>
+        <v>-4.89682974</v>
       </c>
       <c r="P41">
-        <v>-30.31280226000001</v>
+        <v>-17.36148726</v>
       </c>
       <c r="Q41">
-        <v>-20.71280226000001</v>
+        <v>-7.761487260000003</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1550309178751638</v>
+        <v>0.1537344614131004</v>
       </c>
       <c r="T41">
-        <v>1.454908122149348</v>
+        <v>1.437196066619764</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V41">
-        <v>0.08463873863771242</v>
+        <v>0.1148237381518752</v>
       </c>
       <c r="W41">
-        <v>0.1741017119111071</v>
+        <v>0.1241017119111071</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y41">
-        <v>0.3847215392623291</v>
+        <v>0.5219260825085237</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -5040,13 +5040,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1642125275491817</v>
+        <v>0.143486689107323</v>
       </c>
       <c r="C42">
-        <v>236.5940671666807</v>
+        <v>316.0010985932067</v>
       </c>
       <c r="D42">
-        <v>501.4940671666807</v>
+        <v>580.9010985932067</v>
       </c>
       <c r="E42">
         <v>94.10000000000002</v>
@@ -5073,45 +5073,45 @@
         <v>24.3</v>
       </c>
       <c r="M42">
-        <v>64.78212000000001</v>
+        <v>47.75212</v>
       </c>
       <c r="N42">
-        <v>-40.48212000000001</v>
+        <v>-23.45212</v>
       </c>
       <c r="O42">
-        <v>-8.906066400000002</v>
+        <v>-5.159466399999999</v>
       </c>
       <c r="P42">
-        <v>-31.57605360000001</v>
+        <v>-18.2926536</v>
       </c>
       <c r="Q42">
-        <v>-21.97605360000001</v>
+        <v>-8.6926536</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1573514331730832</v>
+        <v>0.1561417024366521</v>
       </c>
       <c r="T42">
-        <v>1.479156590851838</v>
+        <v>1.46114933439676</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V42">
-        <v>0.08252277017176962</v>
+        <v>0.1119531446980783</v>
       </c>
       <c r="W42">
-        <v>0.1745041691133294</v>
+        <v>0.1245041691133294</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y42">
-        <v>0.3751035007807709</v>
+        <v>0.5088779304458106</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -5122,13 +5122,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1659565275491817</v>
+        <v>0.1636087687401277</v>
       </c>
       <c r="C43">
-        <v>222.2544409089096</v>
+        <v>231.7357814847757</v>
       </c>
       <c r="D43">
-        <v>495.6694409089096</v>
+        <v>505.1507814847756</v>
       </c>
       <c r="E43">
         <v>102.615</v>
@@ -5155,37 +5155,37 @@
         <v>24.3</v>
       </c>
       <c r="M43">
-        <v>66.401673</v>
+        <v>64.1324255</v>
       </c>
       <c r="N43">
-        <v>-42.10167300000001</v>
+        <v>-39.8324255</v>
       </c>
       <c r="O43">
-        <v>-9.262368060000002</v>
+        <v>-8.763133610000001</v>
       </c>
       <c r="P43">
-        <v>-32.83930494000001</v>
+        <v>-31.06929189</v>
       </c>
       <c r="Q43">
-        <v>-23.23930494000001</v>
+        <v>-21.46929189</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1597506100065253</v>
+        <v>0.1602883069403321</v>
       </c>
       <c r="T43">
-        <v>1.504227041544242</v>
+        <v>1.502410150023522</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.08051001967977524</v>
+        <v>0.08335876833474823</v>
       </c>
       <c r="W43">
-        <v>0.1748869942569068</v>
+        <v>0.1683869942569068</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.3659546349080692</v>
+        <v>0.3789034924306738</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -5204,13 +5204,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1677005275491817</v>
+        <v>0.1653527687401277</v>
       </c>
       <c r="C44">
-        <v>208.0485620232832</v>
+        <v>217.5753644247521</v>
       </c>
       <c r="D44">
-        <v>489.9785620232832</v>
+        <v>499.5053644247521</v>
       </c>
       <c r="E44">
         <v>111.13</v>
@@ -5237,37 +5237,37 @@
         <v>24.3</v>
       </c>
       <c r="M44">
-        <v>68.021226</v>
+        <v>65.696631</v>
       </c>
       <c r="N44">
-        <v>-43.721226</v>
+        <v>-41.396631</v>
       </c>
       <c r="O44">
-        <v>-9.61866972</v>
+        <v>-9.10725882</v>
       </c>
       <c r="P44">
-        <v>-34.10255628</v>
+        <v>-32.28937218</v>
       </c>
       <c r="Q44">
-        <v>-24.50255628</v>
+        <v>-22.68937218</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1622325170756033</v>
+        <v>0.1628915536117171</v>
       </c>
       <c r="T44">
-        <v>1.530161990536383</v>
+        <v>1.52831377329979</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.0785931144493044</v>
+        <v>0.08137403575534947</v>
       </c>
       <c r="W44">
-        <v>0.1752515896317423</v>
+        <v>0.1687515896317423</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.35724142931502</v>
+        <v>0.3698819807061339</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5286,13 +5286,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1694445275491817</v>
+        <v>0.1670967687401277</v>
       </c>
       <c r="C45">
-        <v>193.9718760602406</v>
+        <v>203.5397358180192</v>
       </c>
       <c r="D45">
-        <v>484.4168760602405</v>
+        <v>493.9847358180191</v>
       </c>
       <c r="E45">
         <v>119.645</v>
@@ -5319,37 +5319,37 @@
         <v>24.3</v>
       </c>
       <c r="M45">
-        <v>69.64077899999999</v>
+        <v>67.2608365</v>
       </c>
       <c r="N45">
-        <v>-45.340779</v>
+        <v>-42.9608365</v>
       </c>
       <c r="O45">
-        <v>-9.974971379999999</v>
+        <v>-9.45138403</v>
       </c>
       <c r="P45">
-        <v>-35.36580762</v>
+        <v>-33.50945247</v>
       </c>
       <c r="Q45">
-        <v>-25.76580762</v>
+        <v>-23.90945247</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1648015086032454</v>
+        <v>0.1655861422715718</v>
       </c>
       <c r="T45">
-        <v>1.557006937738776</v>
+        <v>1.555126295638382</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.07676536760164616</v>
+        <v>0.07948161631917855</v>
       </c>
       <c r="W45">
-        <v>0.1755992270821669</v>
+        <v>0.1690992270821669</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.3489334890983916</v>
+        <v>0.3612800741780843</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5368,13 +5368,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1711885275491817</v>
+        <v>0.1688407687401277</v>
       </c>
       <c r="C46">
-        <v>180.0200330373111</v>
+        <v>189.6248033363728</v>
       </c>
       <c r="D46">
-        <v>478.9800330373111</v>
+        <v>488.5848033363728</v>
       </c>
       <c r="E46">
         <v>128.16</v>
@@ -5401,37 +5401,37 @@
         <v>24.3</v>
       </c>
       <c r="M46">
-        <v>71.26033200000001</v>
+        <v>68.82504200000001</v>
       </c>
       <c r="N46">
-        <v>-46.96033200000001</v>
+        <v>-44.52504200000001</v>
       </c>
       <c r="O46">
-        <v>-10.33127304</v>
+        <v>-9.795509240000003</v>
       </c>
       <c r="P46">
-        <v>-36.62905896000001</v>
+        <v>-34.72953276000001</v>
       </c>
       <c r="Q46">
-        <v>-27.02905896000001</v>
+        <v>-25.12953276000001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1674622498283034</v>
+        <v>0.168376966240707</v>
       </c>
       <c r="T46">
-        <v>1.58481063305554</v>
+        <v>1.582896408060497</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.0750207001561542</v>
+        <v>0.07767521594828812</v>
       </c>
       <c r="W46">
-        <v>0.1759310628302995</v>
+        <v>0.1694310628302995</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.3410031825279736</v>
+        <v>0.3530691634013096</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5450,13 +5450,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1729325275491817</v>
+        <v>0.1705847687401277</v>
       </c>
       <c r="C47">
-        <v>166.1888760923042</v>
+        <v>175.8266516558097</v>
       </c>
       <c r="D47">
-        <v>473.6638760923041</v>
+        <v>483.3016516558097</v>
       </c>
       <c r="E47">
         <v>136.675</v>
@@ -5483,37 +5483,37 @@
         <v>24.3</v>
       </c>
       <c r="M47">
-        <v>72.879885</v>
+        <v>70.3892475</v>
       </c>
       <c r="N47">
-        <v>-48.579885</v>
+        <v>-46.0892475</v>
       </c>
       <c r="O47">
-        <v>-10.6875747</v>
+        <v>-10.13963445</v>
       </c>
       <c r="P47">
-        <v>-37.89231030000001</v>
+        <v>-35.94961305</v>
       </c>
       <c r="Q47">
-        <v>-28.29231030000001</v>
+        <v>-26.34961305</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1702197452797271</v>
+        <v>0.1712692747178107</v>
       </c>
       <c r="T47">
-        <v>1.613625371838368</v>
+        <v>1.611676342752505</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.07335357348601744</v>
+        <v>0.07594910003832618</v>
       </c>
       <c r="W47">
-        <v>0.1762481503229595</v>
+        <v>0.1697481503229595</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.333425334027352</v>
+        <v>0.3452231819923917</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5532,13 +5532,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1746765275491817</v>
+        <v>0.1723287687401277</v>
       </c>
       <c r="C48">
-        <v>152.4744308838277</v>
+        <v>162.141532989016</v>
       </c>
       <c r="D48">
-        <v>468.4644308838276</v>
+        <v>478.131532989016</v>
       </c>
       <c r="E48">
         <v>145.19</v>
@@ -5565,37 +5565,37 @@
         <v>24.3</v>
       </c>
       <c r="M48">
-        <v>74.499438</v>
+        <v>71.953453</v>
       </c>
       <c r="N48">
-        <v>-50.199438</v>
+        <v>-47.653453</v>
       </c>
       <c r="O48">
-        <v>-11.04387636</v>
+        <v>-10.48375966</v>
       </c>
       <c r="P48">
-        <v>-39.15556164</v>
+        <v>-37.16969333999999</v>
       </c>
       <c r="Q48">
-        <v>-29.55556164</v>
+        <v>-27.56969334</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1730793701923146</v>
+        <v>0.1742687057311035</v>
       </c>
       <c r="T48">
-        <v>1.643507323168709</v>
+        <v>1.641522200951626</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.07175893058414751</v>
+        <v>0.07429803264618864</v>
       </c>
       <c r="W48">
-        <v>0.1765514514028952</v>
+        <v>0.1700514514028952</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.3261769572006704</v>
+        <v>0.3377183302099483</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5614,13 +5614,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1764205275491817</v>
+        <v>0.1740727687401277</v>
       </c>
       <c r="C49">
-        <v>138.8728956823339</v>
+        <v>148.5658582190972</v>
       </c>
       <c r="D49">
-        <v>463.377895682334</v>
+        <v>473.0708582190972</v>
       </c>
       <c r="E49">
         <v>153.705</v>
@@ -5647,37 +5647,37 @@
         <v>24.3</v>
       </c>
       <c r="M49">
-        <v>76.11899100000001</v>
+        <v>73.51765850000001</v>
       </c>
       <c r="N49">
-        <v>-51.81899100000001</v>
+        <v>-49.21765850000001</v>
       </c>
       <c r="O49">
-        <v>-11.40017802</v>
+        <v>-10.82788487</v>
       </c>
       <c r="P49">
-        <v>-40.41881298000001</v>
+        <v>-38.38977363000001</v>
       </c>
       <c r="Q49">
-        <v>-30.81881298000001</v>
+        <v>-28.78977363000001</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1760469054789621</v>
+        <v>0.1773813228203696</v>
       </c>
       <c r="T49">
-        <v>1.674516895303967</v>
+        <v>1.672494317950713</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.07023214482703796</v>
+        <v>0.07271722344095058</v>
       </c>
       <c r="W49">
-        <v>0.1768418460538974</v>
+        <v>0.1703418460538974</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.3192370219410816</v>
+        <v>0.3305328338225025</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5696,13 +5696,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1781645275491817</v>
+        <v>0.1758167687401277</v>
       </c>
       <c r="C50">
-        <v>125.3806320997748</v>
+        <v>135.0961885904684</v>
       </c>
       <c r="D50">
-        <v>458.4006320997747</v>
+        <v>468.1161885904684</v>
       </c>
       <c r="E50">
         <v>162.22</v>
@@ -5729,37 +5729,37 @@
         <v>24.3</v>
       </c>
       <c r="M50">
-        <v>77.738544</v>
+        <v>75.081864</v>
       </c>
       <c r="N50">
-        <v>-53.43854400000001</v>
+        <v>-50.781864</v>
       </c>
       <c r="O50">
-        <v>-11.75647968</v>
+        <v>-11.17201008</v>
       </c>
       <c r="P50">
-        <v>-41.68206432000001</v>
+        <v>-39.60985392</v>
       </c>
       <c r="Q50">
-        <v>-32.08206432000001</v>
+        <v>-30.00985392</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1791285767381729</v>
+        <v>0.1806136559515306</v>
       </c>
       <c r="T50">
-        <v>1.706719143290582</v>
+        <v>1.704657670218996</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.06876897514314136</v>
+        <v>0.0712022812859308</v>
       </c>
       <c r="W50">
-        <v>0.1771201409277745</v>
+        <v>0.1706201409277745</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.3125862506506424</v>
+        <v>0.3236467331178672</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5778,13 +5778,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1799085275491817</v>
+        <v>0.1775607687401277</v>
       </c>
       <c r="C51">
-        <v>111.9941564103567</v>
+        <v>121.7292279164823</v>
       </c>
       <c r="D51">
-        <v>453.5291564103567</v>
+        <v>463.2642279164823</v>
       </c>
       <c r="E51">
         <v>170.735</v>
@@ -5811,37 +5811,37 @@
         <v>24.3</v>
       </c>
       <c r="M51">
-        <v>79.358097</v>
+        <v>76.64606950000001</v>
       </c>
       <c r="N51">
-        <v>-55.058097</v>
+        <v>-52.34606950000001</v>
       </c>
       <c r="O51">
-        <v>-12.11278134</v>
+        <v>-11.51613529</v>
       </c>
       <c r="P51">
-        <v>-42.94531566000001</v>
+        <v>-40.82993421000001</v>
       </c>
       <c r="Q51">
-        <v>-33.34531566000001</v>
+        <v>-31.22993421000001</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1823310978506861</v>
+        <v>0.1839727472446978</v>
       </c>
       <c r="T51">
-        <v>1.740184224531574</v>
+        <v>1.738082330419369</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.06736552667083234</v>
+        <v>0.06974917350458525</v>
       </c>
       <c r="W51">
-        <v>0.1773870768272077</v>
+        <v>0.1708870768272077</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.3062069394128742</v>
+        <v>0.3170416977481147</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5860,13 +5860,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1816525275491817</v>
+        <v>0.1793047687401277</v>
       </c>
       <c r="C52">
-        <v>98.71013141889193</v>
+        <v>108.4618152666856</v>
       </c>
       <c r="D52">
-        <v>448.7601314188919</v>
+        <v>458.5118152666855</v>
       </c>
       <c r="E52">
         <v>179.25</v>
@@ -5893,37 +5893,37 @@
         <v>24.3</v>
       </c>
       <c r="M52">
-        <v>80.97765</v>
+        <v>78.210275</v>
       </c>
       <c r="N52">
-        <v>-56.67765</v>
+        <v>-53.910275</v>
       </c>
       <c r="O52">
-        <v>-12.469083</v>
+        <v>-11.8602605</v>
       </c>
       <c r="P52">
-        <v>-44.208567</v>
+        <v>-42.0500145</v>
       </c>
       <c r="Q52">
-        <v>-34.60856700000001</v>
+        <v>-32.45001450000001</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1856617198076998</v>
+        <v>0.1874662021895918</v>
       </c>
       <c r="T52">
-        <v>1.774987909022205</v>
+        <v>1.772843977027756</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.06601821613741569</v>
+        <v>0.06835419003449356</v>
       </c>
       <c r="W52">
-        <v>0.1776433352906636</v>
+        <v>0.1711433352906636</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.3000828006246168</v>
+        <v>0.3107008637931524</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5942,13 +5942,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1833965275491817</v>
+        <v>0.1810487687401277</v>
       </c>
       <c r="C53">
-        <v>85.52535883685039</v>
+        <v>95.29091809961471</v>
       </c>
       <c r="D53">
-        <v>444.0903588368503</v>
+        <v>453.8559180996147</v>
       </c>
       <c r="E53">
         <v>187.765</v>
@@ -5975,37 +5975,37 @@
         <v>24.3</v>
       </c>
       <c r="M53">
-        <v>82.59720300000001</v>
+        <v>79.7744805</v>
       </c>
       <c r="N53">
-        <v>-58.29720300000001</v>
+        <v>-55.4744805</v>
       </c>
       <c r="O53">
-        <v>-12.82538466</v>
+        <v>-12.20438571</v>
       </c>
       <c r="P53">
-        <v>-45.47181834000001</v>
+        <v>-43.27009479</v>
       </c>
       <c r="Q53">
-        <v>-35.87181834</v>
+        <v>-33.67009479000001</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.189128285518061</v>
+        <v>0.1911022471322365</v>
       </c>
       <c r="T53">
-        <v>1.811212152063475</v>
+        <v>1.809024466354853</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.06472374131119185</v>
+        <v>0.06701391179852309</v>
       </c>
       <c r="W53">
-        <v>0.1778895444026113</v>
+        <v>0.1713895444026113</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.2941988241417811</v>
+        <v>0.3046086899932867</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -6024,13 +6024,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1851405275491817</v>
+        <v>0.1827927687401277</v>
       </c>
       <c r="C54">
-        <v>72.4367721295186</v>
+        <v>82.2136258097766</v>
       </c>
       <c r="D54">
-        <v>439.5167721295186</v>
+        <v>449.2936258097766</v>
       </c>
       <c r="E54">
         <v>196.28</v>
@@ -6057,37 +6057,37 @@
         <v>24.3</v>
       </c>
       <c r="M54">
-        <v>84.216756</v>
+        <v>81.33868600000001</v>
       </c>
       <c r="N54">
-        <v>-59.91675600000001</v>
+        <v>-57.03868600000001</v>
       </c>
       <c r="O54">
-        <v>-13.18168632</v>
+        <v>-12.54851092</v>
       </c>
       <c r="P54">
-        <v>-46.73506968000001</v>
+        <v>-44.49017508000001</v>
       </c>
       <c r="Q54">
-        <v>-37.13506968000002</v>
+        <v>-34.89017508000001</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.192739291466354</v>
+        <v>0.1948897939474915</v>
       </c>
       <c r="T54">
-        <v>1.848945738564797</v>
+        <v>1.84671247607058</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.06347905397828432</v>
+        <v>0.06572518272547456</v>
       </c>
       <c r="W54">
-        <v>0.1781262839333303</v>
+        <v>0.1716262839333303</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.2885411544467469</v>
+        <v>0.2987508305703389</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -6106,13 +6106,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1868845275491817</v>
+        <v>0.1845367687401277</v>
       </c>
       <c r="C55">
-        <v>59.44142980064538</v>
+        <v>69.22714365996438</v>
       </c>
       <c r="D55">
-        <v>435.0364298006454</v>
+        <v>444.8221436599644</v>
       </c>
       <c r="E55">
         <v>204.795</v>
@@ -6139,37 +6139,37 @@
         <v>24.3</v>
       </c>
       <c r="M55">
-        <v>85.836309</v>
+        <v>82.90289150000001</v>
       </c>
       <c r="N55">
-        <v>-61.536309</v>
+        <v>-58.60289150000001</v>
       </c>
       <c r="O55">
-        <v>-13.53798798</v>
+        <v>-12.89263613</v>
       </c>
       <c r="P55">
-        <v>-47.99832102000001</v>
+        <v>-45.71025537000001</v>
       </c>
       <c r="Q55">
-        <v>-38.39832102000001</v>
+        <v>-36.11025537000002</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1965039572422338</v>
+        <v>0.1988385129676509</v>
       </c>
       <c r="T55">
-        <v>1.888285009598091</v>
+        <v>1.886004230880592</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.06228133597869406</v>
+        <v>0.06448508493820146</v>
       </c>
       <c r="W55">
-        <v>0.1783540898968524</v>
+        <v>0.1718540898968524</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.2830969817213366</v>
+        <v>0.2931140224463702</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1886285275491816</v>
+        <v>0.1862807687401277</v>
       </c>
       <c r="C56">
-        <v>46.53650908367109</v>
+        <v>56.32878707232243</v>
       </c>
       <c r="D56">
-        <v>430.6465090836711</v>
+        <v>440.4387870723224</v>
       </c>
       <c r="E56">
         <v>213.31</v>
@@ -6221,37 +6221,37 @@
         <v>24.3</v>
       </c>
       <c r="M56">
-        <v>87.45586200000001</v>
+        <v>84.467097</v>
       </c>
       <c r="N56">
-        <v>-63.15586200000001</v>
+        <v>-60.167097</v>
       </c>
       <c r="O56">
-        <v>-13.89428964</v>
+        <v>-13.23676134</v>
       </c>
       <c r="P56">
-        <v>-49.26157236000001</v>
+        <v>-46.93033566</v>
       </c>
       <c r="Q56">
-        <v>-39.66157236000001</v>
+        <v>-37.33033566</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.2004323041388041</v>
+        <v>0.2029589154234693</v>
       </c>
       <c r="T56">
-        <v>1.929334683719788</v>
+        <v>1.927004322856256</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.06112797790501454</v>
+        <v>0.06329091669860515</v>
       </c>
       <c r="W56">
-        <v>0.1785734586024662</v>
+        <v>0.1720734586024663</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.2778544450227932</v>
+        <v>0.2876859849936597</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -6270,13 +6270,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1903725275491817</v>
+        <v>0.1880247687401277</v>
       </c>
       <c r="C57">
-        <v>33.71930001111036</v>
+        <v>43.5159762536606</v>
       </c>
       <c r="D57">
-        <v>426.3443000111104</v>
+        <v>436.1409762536607</v>
       </c>
       <c r="E57">
         <v>221.825</v>
@@ -6303,37 +6303,37 @@
         <v>24.3</v>
       </c>
       <c r="M57">
-        <v>89.07541500000001</v>
+        <v>86.03130250000001</v>
       </c>
       <c r="N57">
-        <v>-64.77541500000001</v>
+        <v>-61.73130250000001</v>
       </c>
       <c r="O57">
-        <v>-14.2505913</v>
+        <v>-13.58088655</v>
       </c>
       <c r="P57">
-        <v>-50.52482370000001</v>
+        <v>-48.15041595000001</v>
       </c>
       <c r="Q57">
-        <v>-40.9248237</v>
+        <v>-38.55041595000002</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.2045352442307776</v>
+        <v>0.2072624468773243</v>
       </c>
       <c r="T57">
-        <v>1.97220878780245</v>
+        <v>1.969826641141952</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.06001656012492336</v>
+        <v>0.0621401727586305</v>
       </c>
       <c r="W57">
-        <v>0.1787848502642396</v>
+        <v>0.1722848502642396</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.2728025460223789</v>
+        <v>0.2824553307210477</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6352,13 +6352,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1921165275491817</v>
+        <v>0.1897687687401277</v>
       </c>
       <c r="C58">
-        <v>20.98719983590433</v>
+        <v>30.78623113240553</v>
       </c>
       <c r="D58">
-        <v>422.1271998359044</v>
+        <v>431.9262311324056</v>
       </c>
       <c r="E58">
         <v>230.34</v>
@@ -6385,37 +6385,37 @@
         <v>24.3</v>
       </c>
       <c r="M58">
-        <v>90.694968</v>
+        <v>87.59550800000001</v>
       </c>
       <c r="N58">
-        <v>-66.39496800000001</v>
+        <v>-63.29550800000001</v>
       </c>
       <c r="O58">
-        <v>-14.60689296</v>
+        <v>-13.92501176</v>
       </c>
       <c r="P58">
-        <v>-51.78807504</v>
+        <v>-49.37049624000001</v>
       </c>
       <c r="Q58">
-        <v>-42.18807504</v>
+        <v>-39.77049624000001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.2088246815996589</v>
+        <v>0.2117615933972634</v>
       </c>
       <c r="T58">
-        <v>2.017031714797961</v>
+        <v>2.014595428440632</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.05894483583697829</v>
+        <v>0.0610305268165121</v>
       </c>
       <c r="W58">
-        <v>0.1789886922238067</v>
+        <v>0.1724886922238067</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.267931071986265</v>
+        <v>0.2774114855296004</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6434,13 +6434,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1938605275491817</v>
+        <v>0.1915127687401277</v>
       </c>
       <c r="C59">
-        <v>8.337707780608753</v>
+        <v>18.13716658630744</v>
       </c>
       <c r="D59">
-        <v>417.9927077806088</v>
+        <v>427.7921665863075</v>
       </c>
       <c r="E59">
         <v>238.8550000000001</v>
@@ -6467,37 +6467,37 @@
         <v>24.3</v>
       </c>
       <c r="M59">
-        <v>92.31452100000001</v>
+        <v>89.15971350000001</v>
       </c>
       <c r="N59">
-        <v>-68.01452100000002</v>
+        <v>-64.85971350000001</v>
       </c>
       <c r="O59">
-        <v>-14.96319462</v>
+        <v>-14.26913697</v>
       </c>
       <c r="P59">
-        <v>-53.05132638000001</v>
+        <v>-50.59057653000001</v>
       </c>
       <c r="Q59">
-        <v>-43.45132638000001</v>
+        <v>-40.99057653000001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.2133136276833719</v>
+        <v>0.216470002546037</v>
       </c>
       <c r="T59">
-        <v>2.063939429095587</v>
+        <v>2.061446484915996</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.05791071591001376</v>
+        <v>0.05995981581973119</v>
       </c>
       <c r="W59">
-        <v>0.1791853818339154</v>
+        <v>0.1726853818339154</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.2632305268636989</v>
+        <v>0.2725446173624144</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6516,13 +6516,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1956045275491817</v>
+        <v>0.1932567687401276</v>
       </c>
       <c r="C60">
-        <v>-4.231579907836363</v>
+        <v>5.566487941612138</v>
       </c>
       <c r="D60">
-        <v>413.9384200921636</v>
+        <v>423.7364879416121</v>
       </c>
       <c r="E60">
         <v>247.3699999999999</v>
@@ -6549,37 +6549,37 @@
         <v>24.3</v>
       </c>
       <c r="M60">
-        <v>93.934074</v>
+        <v>90.723919</v>
       </c>
       <c r="N60">
-        <v>-69.634074</v>
+        <v>-66.423919</v>
       </c>
       <c r="O60">
-        <v>-15.31949628</v>
+        <v>-14.61326218</v>
       </c>
       <c r="P60">
-        <v>-54.31457772</v>
+        <v>-51.81065682</v>
       </c>
       <c r="Q60">
-        <v>-44.71457772000001</v>
+        <v>-42.21065682</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2180163331044045</v>
+        <v>0.221402621654276</v>
       </c>
       <c r="T60">
-        <v>2.113080844074054</v>
+        <v>2.110528544080662</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.0569122552908756</v>
+        <v>0.0589260258918048</v>
       </c>
       <c r="W60">
-        <v>0.1793752890436755</v>
+        <v>0.1728752890436754</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.2586920695039799</v>
+        <v>0.2678455722354762</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1973485275491817</v>
+        <v>0.1950007687401276</v>
       </c>
       <c r="C61">
-        <v>-16.72297461830948</v>
+        <v>-6.92801327415475</v>
       </c>
       <c r="D61">
-        <v>409.9620253816905</v>
+        <v>419.7569867258453</v>
       </c>
       <c r="E61">
         <v>255.885</v>
@@ -6631,37 +6631,37 @@
         <v>24.3</v>
       </c>
       <c r="M61">
-        <v>95.55362700000001</v>
+        <v>92.2881245</v>
       </c>
       <c r="N61">
-        <v>-71.25362700000001</v>
+        <v>-67.9881245</v>
       </c>
       <c r="O61">
-        <v>-15.67579794</v>
+        <v>-14.95738739</v>
       </c>
       <c r="P61">
-        <v>-55.57782906000001</v>
+        <v>-53.03073711</v>
       </c>
       <c r="Q61">
-        <v>-45.97782906</v>
+        <v>-43.43073711</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2229484387898778</v>
+        <v>0.2265758563287704</v>
       </c>
       <c r="T61">
-        <v>2.164619401246591</v>
+        <v>2.162004850033848</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.05594764079442008</v>
+        <v>0.05792727969024877</v>
       </c>
       <c r="W61">
-        <v>0.1795587587209013</v>
+        <v>0.1730587587209013</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.2543074581564548</v>
+        <v>0.263305816773858</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6680,13 +6680,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1990925275491817</v>
+        <v>0.1967447687401277</v>
       </c>
       <c r="C62">
-        <v>-29.13869976965981</v>
+        <v>-19.3484633423015</v>
       </c>
       <c r="D62">
-        <v>406.0613002303402</v>
+        <v>415.8515366576985</v>
       </c>
       <c r="E62">
         <v>264.4</v>
@@ -6713,37 +6713,37 @@
         <v>24.3</v>
       </c>
       <c r="M62">
-        <v>97.17318</v>
+        <v>93.85232999999999</v>
       </c>
       <c r="N62">
-        <v>-72.87318</v>
+        <v>-69.55233</v>
       </c>
       <c r="O62">
-        <v>-16.0320996</v>
+        <v>-15.3015126</v>
       </c>
       <c r="P62">
-        <v>-56.8410804</v>
+        <v>-54.2508174</v>
       </c>
       <c r="Q62">
-        <v>-47.2410804</v>
+        <v>-44.65081740000001</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2281271497596247</v>
+        <v>0.2320077527369898</v>
       </c>
       <c r="T62">
-        <v>2.218734886277756</v>
+        <v>2.216054971284695</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.05501518011451308</v>
+        <v>0.05696182502874463</v>
       </c>
       <c r="W62">
-        <v>0.1797361127422196</v>
+        <v>0.1732361127422196</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.250069000520514</v>
+        <v>0.2589173864942937</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6762,13 +6762,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.2008365275491817</v>
+        <v>0.1984887687401277</v>
       </c>
       <c r="C63">
-        <v>-41.48089495636953</v>
+        <v>-31.6969101412879</v>
       </c>
       <c r="D63">
-        <v>402.2341050436304</v>
+        <v>412.0180898587121</v>
       </c>
       <c r="E63">
         <v>272.915</v>
@@ -6795,37 +6795,37 @@
         <v>24.3</v>
       </c>
       <c r="M63">
-        <v>98.792733</v>
+        <v>95.41653549999999</v>
       </c>
       <c r="N63">
-        <v>-74.492733</v>
+        <v>-71.1165355</v>
       </c>
       <c r="O63">
-        <v>-16.38840126</v>
+        <v>-15.64563781</v>
       </c>
       <c r="P63">
-        <v>-58.10433174</v>
+        <v>-55.47089769</v>
       </c>
       <c r="Q63">
-        <v>-48.50433174</v>
+        <v>-45.87089769000001</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2335714356508972</v>
+        <v>0.2377182079353741</v>
       </c>
       <c r="T63">
-        <v>2.275625524387442</v>
+        <v>2.272876893625328</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.0541132919159145</v>
+        <v>0.05602802461843734</v>
       </c>
       <c r="W63">
-        <v>0.1799076518775931</v>
+        <v>0.173407651877593</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.2459695087087023</v>
+        <v>0.2546728391747152</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6844,13 +6844,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.2025805275491817</v>
+        <v>0.2002327687401276</v>
       </c>
       <c r="C64">
-        <v>-53.75161986196156</v>
+        <v>-43.97532672742443</v>
       </c>
       <c r="D64">
-        <v>398.4783801380384</v>
+        <v>408.2546732725755</v>
       </c>
       <c r="E64">
         <v>281.4299999999999</v>
@@ -6877,37 +6877,37 @@
         <v>24.3</v>
       </c>
       <c r="M64">
-        <v>100.412286</v>
+        <v>96.98074099999999</v>
       </c>
       <c r="N64">
-        <v>-76.112286</v>
+        <v>-72.680741</v>
       </c>
       <c r="O64">
-        <v>-16.74470292</v>
+        <v>-15.98976302</v>
       </c>
       <c r="P64">
-        <v>-59.36758308</v>
+        <v>-56.69097798</v>
       </c>
       <c r="Q64">
-        <v>-49.76758308000001</v>
+        <v>-47.09097798000001</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2393022629048682</v>
+        <v>0.2437292134073576</v>
       </c>
       <c r="T64">
-        <v>2.335510406608165</v>
+        <v>2.332689443457573</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.05324049688501266</v>
+        <v>0.05512434680201093</v>
       </c>
       <c r="W64">
-        <v>0.1800736574924706</v>
+        <v>0.1735736574924706</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.2420022585682393</v>
+        <v>0.2505652127364133</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6926,13 +6926,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.2043245275491817</v>
+        <v>0.2019767687401277</v>
       </c>
       <c r="C65">
-        <v>-65.95285795519578</v>
+        <v>-56.1856147211094</v>
       </c>
       <c r="D65">
-        <v>394.7921420448043</v>
+        <v>404.5593852788907</v>
       </c>
       <c r="E65">
         <v>289.9450000000001</v>
@@ -6959,37 +6959,37 @@
         <v>24.3</v>
       </c>
       <c r="M65">
-        <v>102.031839</v>
+        <v>98.54494650000001</v>
       </c>
       <c r="N65">
-        <v>-77.73183900000002</v>
+        <v>-74.24494650000001</v>
       </c>
       <c r="O65">
-        <v>-17.10100458000001</v>
+        <v>-16.33388823</v>
       </c>
       <c r="P65">
-        <v>-60.63083442000001</v>
+        <v>-57.91105827000001</v>
       </c>
       <c r="Q65">
-        <v>-51.03083442000002</v>
+        <v>-48.31105827000002</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2453428646049997</v>
+        <v>0.250065138094043</v>
       </c>
       <c r="T65">
-        <v>2.398632309489466</v>
+        <v>2.395735104091562</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.05239540963286959</v>
+        <v>0.05424935717023297</v>
       </c>
       <c r="W65">
-        <v>0.1802343930878282</v>
+        <v>0.1737343930878282</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.2381609528766799</v>
+        <v>0.2465879871374226</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -7008,13 +7008,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2060685275491817</v>
+        <v>0.2037207687401277</v>
       </c>
       <c r="C66">
-        <v>-78.08651998298791</v>
+        <v>-68.32960751081214</v>
       </c>
       <c r="D66">
-        <v>391.1734800170121</v>
+        <v>400.9303924891879</v>
       </c>
       <c r="E66">
         <v>298.46</v>
@@ -7041,37 +7041,37 @@
         <v>24.3</v>
       </c>
       <c r="M66">
-        <v>103.651392</v>
+        <v>100.109152</v>
       </c>
       <c r="N66">
-        <v>-79.35139200000002</v>
+        <v>-75.80915200000001</v>
       </c>
       <c r="O66">
-        <v>-17.45730624</v>
+        <v>-16.67801344</v>
       </c>
       <c r="P66">
-        <v>-61.89408576000001</v>
+        <v>-59.13113856000001</v>
       </c>
       <c r="Q66">
-        <v>-52.29408576000002</v>
+        <v>-49.53113856000002</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2517190552884719</v>
+        <v>0.2567530585966553</v>
       </c>
       <c r="T66">
-        <v>2.465260984753063</v>
+        <v>2.462283301427439</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.05157673135735601</v>
+        <v>0.05340171096444808</v>
       </c>
       <c r="W66">
-        <v>0.1803901056958309</v>
+        <v>0.1738901056958309</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.2344396879879818</v>
+        <v>0.2427350498384003</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -7090,13 +7090,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2078125275491817</v>
+        <v>0.2054647687401276</v>
       </c>
       <c r="C67">
-        <v>-90.15444727297898</v>
+        <v>-80.40907328614941</v>
       </c>
       <c r="D67">
-        <v>387.620552727021</v>
+        <v>397.3659267138506</v>
       </c>
       <c r="E67">
         <v>306.975</v>
@@ -7123,37 +7123,37 @@
         <v>24.3</v>
       </c>
       <c r="M67">
-        <v>105.270945</v>
+        <v>101.6733575</v>
       </c>
       <c r="N67">
-        <v>-80.97094500000001</v>
+        <v>-77.37335750000001</v>
       </c>
       <c r="O67">
-        <v>-17.8136079</v>
+        <v>-17.02213865</v>
       </c>
       <c r="P67">
-        <v>-63.15733710000001</v>
+        <v>-60.35121885000001</v>
       </c>
       <c r="Q67">
-        <v>-53.55733710000001</v>
+        <v>-50.75121885000001</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2584595997252854</v>
+        <v>0.2638231459851311</v>
       </c>
       <c r="T67">
-        <v>2.535697012888865</v>
+        <v>2.532634252896794</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.05078324318262745</v>
+        <v>0.05258014618037965</v>
       </c>
       <c r="W67">
-        <v>0.1805410271466643</v>
+        <v>0.1740410271466643</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.2308329235573975</v>
+        <v>0.2390006644562711</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -7172,13 +7172,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2095565275491817</v>
+        <v>0.2072087687401276</v>
       </c>
       <c r="C68">
-        <v>-102.158414857745</v>
+        <v>-92.42571791059214</v>
       </c>
       <c r="D68">
-        <v>384.1315851422551</v>
+        <v>393.8642820894079</v>
       </c>
       <c r="E68">
         <v>315.49</v>
@@ -7205,37 +7205,37 @@
         <v>24.3</v>
       </c>
       <c r="M68">
-        <v>106.890498</v>
+        <v>103.237563</v>
       </c>
       <c r="N68">
-        <v>-82.59049800000001</v>
+        <v>-78.93756300000001</v>
       </c>
       <c r="O68">
-        <v>-18.16990956</v>
+        <v>-17.36626386</v>
       </c>
       <c r="P68">
-        <v>-64.42058844</v>
+        <v>-61.57129914000001</v>
       </c>
       <c r="Q68">
-        <v>-54.82058844000001</v>
+        <v>-51.97129914000001</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2655966467760291</v>
+        <v>0.2713091208670467</v>
       </c>
       <c r="T68">
-        <v>2.61027633679736</v>
+        <v>2.607123495629053</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.0500138001041028</v>
+        <v>0.05178347729885874</v>
       </c>
       <c r="W68">
-        <v>0.1806873752201996</v>
+        <v>0.1741873752201996</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.227335455018649</v>
+        <v>0.2353794422675397</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -7254,13 +7254,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2113005275491817</v>
+        <v>0.2089527687401277</v>
       </c>
       <c r="C69">
-        <v>-114.1001344317859</v>
+        <v>-104.3811876436116</v>
       </c>
       <c r="D69">
-        <v>380.7048655682141</v>
+        <v>390.4238123563885</v>
       </c>
       <c r="E69">
         <v>324.005</v>
@@ -7287,37 +7287,37 @@
         <v>24.3</v>
       </c>
       <c r="M69">
-        <v>108.510051</v>
+        <v>104.8017685</v>
       </c>
       <c r="N69">
-        <v>-84.21005100000001</v>
+        <v>-80.5017685</v>
       </c>
       <c r="O69">
-        <v>-18.52621122</v>
+        <v>-17.71038907</v>
       </c>
       <c r="P69">
-        <v>-65.68383978</v>
+        <v>-62.79137943</v>
       </c>
       <c r="Q69">
-        <v>-56.08383978000001</v>
+        <v>-53.19137943</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2731662421328785</v>
+        <v>0.2792487911963512</v>
       </c>
       <c r="T69">
-        <v>2.689375619730614</v>
+        <v>2.686127237920843</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.04926732547568335</v>
+        <v>0.05101058957798027</v>
       </c>
       <c r="W69">
-        <v>0.180829354694525</v>
+        <v>0.174329354694525</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.2239423885258334</v>
+        <v>0.2318663162635466</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7336,13 +7336,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2130445275491817</v>
+        <v>0.2106967687401277</v>
       </c>
       <c r="C70">
-        <v>-125.981257151644</v>
+        <v>-116.2770717213901</v>
       </c>
       <c r="D70">
-        <v>377.3387428483561</v>
+        <v>387.04292827861</v>
       </c>
       <c r="E70">
         <v>332.5200000000001</v>
@@ -7369,37 +7369,37 @@
         <v>24.3</v>
       </c>
       <c r="M70">
-        <v>110.129604</v>
+        <v>106.365974</v>
       </c>
       <c r="N70">
-        <v>-85.82960400000003</v>
+        <v>-82.06597400000003</v>
       </c>
       <c r="O70">
-        <v>-18.88251288000001</v>
+        <v>-18.05451428000001</v>
       </c>
       <c r="P70">
-        <v>-66.94709112000002</v>
+        <v>-64.01145972000002</v>
       </c>
       <c r="Q70">
-        <v>-57.34709112000003</v>
+        <v>-54.41145972000002</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2812089371995309</v>
+        <v>0.2876846909212372</v>
       </c>
       <c r="T70">
-        <v>2.773418607847196</v>
+        <v>2.770068714105869</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.04854280598339388</v>
+        <v>0.05026043384889231</v>
       </c>
       <c r="W70">
-        <v>0.1809671583019585</v>
+        <v>0.1744671583019585</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.2206491181063358</v>
+        <v>0.228456517494965</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7418,13 +7418,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2147885275491817</v>
+        <v>0.2124407687401277</v>
       </c>
       <c r="C71">
-        <v>-137.8033762887756</v>
+        <v>-128.1149048045976</v>
       </c>
       <c r="D71">
-        <v>374.0316237112245</v>
+        <v>383.7200951954025</v>
       </c>
       <c r="E71">
         <v>341.0350000000001</v>
@@ -7451,37 +7451,37 @@
         <v>24.3</v>
       </c>
       <c r="M71">
-        <v>111.749157</v>
+        <v>107.9301795</v>
       </c>
       <c r="N71">
-        <v>-87.44915700000003</v>
+        <v>-83.63017950000003</v>
       </c>
       <c r="O71">
-        <v>-19.23881454000001</v>
+        <v>-18.39863949</v>
       </c>
       <c r="P71">
-        <v>-68.21034246000002</v>
+        <v>-65.23154001000002</v>
       </c>
       <c r="Q71">
-        <v>-58.61034246000003</v>
+        <v>-55.63154001000002</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2897705158188707</v>
+        <v>0.2966648422412771</v>
       </c>
       <c r="T71">
-        <v>2.862883724229364</v>
+        <v>2.859425769399607</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.04783928705609832</v>
+        <v>0.04953202176412575</v>
       </c>
       <c r="W71">
-        <v>0.1811009676019301</v>
+        <v>0.1746009676019301</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.2174513048004468</v>
+        <v>0.2251455534732988</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7500,13 +7500,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2165325275491817</v>
+        <v>0.2141847687401277</v>
       </c>
       <c r="C72">
-        <v>-149.5680297441307</v>
+        <v>-139.8961693011527</v>
       </c>
       <c r="D72">
-        <v>370.7819702558693</v>
+        <v>380.4538306988474</v>
       </c>
       <c r="E72">
         <v>349.5500000000001</v>
@@ -7533,37 +7533,37 @@
         <v>24.3</v>
       </c>
       <c r="M72">
-        <v>113.36871</v>
+        <v>109.494385</v>
       </c>
       <c r="N72">
-        <v>-89.06871000000002</v>
+        <v>-85.19438500000001</v>
       </c>
       <c r="O72">
-        <v>-19.59511620000001</v>
+        <v>-18.7427647</v>
       </c>
       <c r="P72">
-        <v>-69.47359380000002</v>
+        <v>-66.4516203</v>
       </c>
       <c r="Q72">
-        <v>-59.87359380000002</v>
+        <v>-56.85162030000001</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2989028663461664</v>
+        <v>0.3062436703159864</v>
       </c>
       <c r="T72">
-        <v>2.958313181703676</v>
+        <v>2.954739961712927</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.04715586866958263</v>
+        <v>0.04882442145320968</v>
       </c>
       <c r="W72">
-        <v>0.1812309537790454</v>
+        <v>0.1747309537790454</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.2143448575890119</v>
+        <v>0.2219291884236804</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2182765275491816</v>
+        <v>0.2159287687401276</v>
       </c>
       <c r="C73">
-        <v>-161.2767024327791</v>
+        <v>-151.6222975713561</v>
       </c>
       <c r="D73">
-        <v>367.5882975672208</v>
+        <v>377.2427024286438</v>
       </c>
       <c r="E73">
         <v>358.0649999999999</v>
@@ -7615,37 +7615,37 @@
         <v>24.3</v>
       </c>
       <c r="M73">
-        <v>114.988263</v>
+        <v>111.0585905</v>
       </c>
       <c r="N73">
-        <v>-90.68826299999999</v>
+        <v>-86.7585905</v>
       </c>
       <c r="O73">
-        <v>-19.95141786</v>
+        <v>-19.08688991</v>
       </c>
       <c r="P73">
-        <v>-70.73684513999999</v>
+        <v>-67.67170059</v>
       </c>
       <c r="Q73">
-        <v>-61.13684513999999</v>
+        <v>-58.07170059000001</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.3086650341512065</v>
+        <v>0.3164831072234341</v>
       </c>
       <c r="T73">
-        <v>3.060323981072767</v>
+        <v>3.056627546599579</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.04649170150522233</v>
+        <v>0.048136753545418</v>
       </c>
       <c r="W73">
-        <v>0.1813572783737067</v>
+        <v>0.1748572783737067</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.2113259159328287</v>
+        <v>0.2188034252064454</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7664,13 +7664,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2200205275491817</v>
+        <v>0.2176727687401276</v>
       </c>
       <c r="C74">
-        <v>-172.9308285463519</v>
+        <v>-163.2946740222881</v>
       </c>
       <c r="D74">
-        <v>364.449171453648</v>
+        <v>374.0853259777119</v>
       </c>
       <c r="E74">
         <v>366.5799999999999</v>
@@ -7697,37 +7697,37 @@
         <v>24.3</v>
       </c>
       <c r="M74">
-        <v>116.607816</v>
+        <v>112.622796</v>
       </c>
       <c r="N74">
-        <v>-92.30781599999999</v>
+        <v>-88.322796</v>
       </c>
       <c r="O74">
-        <v>-20.30771952</v>
+        <v>-19.43101512</v>
       </c>
       <c r="P74">
-        <v>-72.00009648</v>
+        <v>-68.89178088</v>
       </c>
       <c r="Q74">
-        <v>-62.40009648</v>
+        <v>-59.29178088</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.3191244996566068</v>
+        <v>0.3274539324814139</v>
       </c>
       <c r="T74">
-        <v>3.169621266111081</v>
+        <v>3.165792816120993</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.04584598342876091</v>
+        <v>0.04746818752395386</v>
       </c>
       <c r="W74">
-        <v>0.1814800939518497</v>
+        <v>0.1749800939518497</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.208390833767095</v>
+        <v>0.2157644887452448</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7746,13 +7746,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2217645275491817</v>
+        <v>0.2194167687401277</v>
       </c>
       <c r="C75">
-        <v>-184.5317937005381</v>
+        <v>-174.9146370979008</v>
       </c>
       <c r="D75">
-        <v>361.363206299462</v>
+        <v>370.9803629020992</v>
       </c>
       <c r="E75">
         <v>375.095</v>
@@ -7779,37 +7779,37 @@
         <v>24.3</v>
       </c>
       <c r="M75">
-        <v>118.227369</v>
+        <v>114.1870015</v>
       </c>
       <c r="N75">
-        <v>-93.92736900000001</v>
+        <v>-89.88700150000001</v>
       </c>
       <c r="O75">
-        <v>-20.66402118</v>
+        <v>-19.77514033</v>
       </c>
       <c r="P75">
-        <v>-73.26334782000001</v>
+        <v>-70.11186117000001</v>
       </c>
       <c r="Q75">
-        <v>-63.66334782000001</v>
+        <v>-60.51186117000002</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3303587403846292</v>
+        <v>0.339237411462207</v>
       </c>
       <c r="T75">
-        <v>3.287014646337417</v>
+        <v>3.283044401903251</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.0452179562585039</v>
+        <v>0.0468179383797901</v>
       </c>
       <c r="W75">
-        <v>0.1815995447196326</v>
+        <v>0.1750995447196326</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.2055361648113814</v>
+        <v>0.2128088108172277</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7828,13 +7828,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2235085275491817</v>
+        <v>0.2211607687401276</v>
       </c>
       <c r="C76">
-        <v>-196.0809369743959</v>
+        <v>-186.4834811708205</v>
       </c>
       <c r="D76">
-        <v>358.3290630256042</v>
+        <v>367.9265188291795</v>
       </c>
       <c r="E76">
         <v>383.61</v>
@@ -7861,37 +7861,37 @@
         <v>24.3</v>
       </c>
       <c r="M76">
-        <v>119.846922</v>
+        <v>115.751207</v>
       </c>
       <c r="N76">
-        <v>-95.54692200000001</v>
+        <v>-91.45120700000001</v>
       </c>
       <c r="O76">
-        <v>-21.02032284</v>
+        <v>-20.11926554</v>
       </c>
       <c r="P76">
-        <v>-74.52659916</v>
+        <v>-71.33194146000001</v>
       </c>
       <c r="Q76">
-        <v>-64.92659916000001</v>
+        <v>-61.73194146000002</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3424571534763457</v>
+        <v>0.3519273119030611</v>
       </c>
       <c r="T76">
-        <v>3.413438286581163</v>
+        <v>3.409315340437992</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.04460690279555114</v>
+        <v>0.04618526353681996</v>
       </c>
       <c r="W76">
-        <v>0.1817157670882862</v>
+        <v>0.1752157670882862</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.202758649070687</v>
+        <v>0.2099330160764543</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7910,13 +7910,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2252525275491817</v>
+        <v>0.2229047687401277</v>
       </c>
       <c r="C77">
-        <v>-207.5795528477822</v>
+        <v>-198.0024583414741</v>
       </c>
       <c r="D77">
-        <v>355.3454471522178</v>
+        <v>364.9225416585259</v>
       </c>
       <c r="E77">
         <v>392.125</v>
@@ -7943,37 +7943,37 @@
         <v>24.3</v>
       </c>
       <c r="M77">
-        <v>121.466475</v>
+        <v>117.3154125</v>
       </c>
       <c r="N77">
-        <v>-97.16647500000001</v>
+        <v>-93.01541250000001</v>
       </c>
       <c r="O77">
-        <v>-21.3766245</v>
+        <v>-20.46339075</v>
       </c>
       <c r="P77">
-        <v>-75.7898505</v>
+        <v>-72.55202175000001</v>
       </c>
       <c r="Q77">
-        <v>-66.18985050000001</v>
+        <v>-62.95202175000001</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3555234396153996</v>
+        <v>0.3656324043791836</v>
       </c>
       <c r="T77">
-        <v>3.54997581804441</v>
+        <v>3.545687954055512</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.04401214409161047</v>
+        <v>0.04556946002299569</v>
       </c>
       <c r="W77">
-        <v>0.1818288901937757</v>
+        <v>0.1753288901937757</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.2000552004164111</v>
+        <v>0.207133909195435</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7992,13 +7992,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2269965275491817</v>
+        <v>0.2246487687401277</v>
       </c>
       <c r="C78">
-        <v>-219.0288930427893</v>
+        <v>-209.4727801497937</v>
       </c>
       <c r="D78">
-        <v>352.4111069572107</v>
+        <v>361.9672198502063</v>
       </c>
       <c r="E78">
         <v>400.64</v>
@@ -8025,37 +8025,37 @@
         <v>24.3</v>
       </c>
       <c r="M78">
-        <v>123.086028</v>
+        <v>118.879618</v>
       </c>
       <c r="N78">
-        <v>-98.786028</v>
+        <v>-94.579618</v>
       </c>
       <c r="O78">
-        <v>-21.73292616</v>
+        <v>-20.80751596</v>
       </c>
       <c r="P78">
-        <v>-77.05310184</v>
+        <v>-73.77210203999999</v>
       </c>
       <c r="Q78">
-        <v>-67.45310184</v>
+        <v>-64.17210204</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3696785829327079</v>
+        <v>0.380479587894983</v>
       </c>
       <c r="T78">
-        <v>3.697891477129594</v>
+        <v>3.693424952141159</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.04343303693251033</v>
+        <v>0.04496986186479839</v>
       </c>
       <c r="W78">
-        <v>0.1819390363754365</v>
+        <v>0.1754390363754365</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.1974228951477742</v>
+        <v>0.2044084630218108</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -8074,13 +8074,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2287405275491816</v>
+        <v>0.2263927687401276</v>
       </c>
       <c r="C79">
-        <v>-230.4301682746914</v>
+        <v>-220.8956192044165</v>
       </c>
       <c r="D79">
-        <v>349.5248317253086</v>
+        <v>359.0593807955835</v>
       </c>
       <c r="E79">
         <v>409.155</v>
@@ -8107,37 +8107,37 @@
         <v>24.3</v>
       </c>
       <c r="M79">
-        <v>124.705581</v>
+        <v>120.4438235</v>
       </c>
       <c r="N79">
-        <v>-100.405581</v>
+        <v>-96.1438235</v>
       </c>
       <c r="O79">
-        <v>-22.08922782</v>
+        <v>-21.15164117</v>
       </c>
       <c r="P79">
-        <v>-78.31635317999999</v>
+        <v>-74.99218232999999</v>
       </c>
       <c r="Q79">
-        <v>-68.71635318</v>
+        <v>-65.39218233</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.3850646082776082</v>
+        <v>0.3966178308469386</v>
       </c>
       <c r="T79">
-        <v>3.858669367439576</v>
+        <v>3.854008645712513</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.0428689715178024</v>
+        <v>0.04438583768473608</v>
       </c>
       <c r="W79">
-        <v>0.182046321617314</v>
+        <v>0.175546321617314</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.1948589614445564</v>
+        <v>0.2017538076578912</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -8156,13 +8156,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2304845275491817</v>
+        <v>0.2281367687401276</v>
       </c>
       <c r="C80">
-        <v>-241.7845499175502</v>
+        <v>-232.2721107339828</v>
       </c>
       <c r="D80">
-        <v>346.6854500824499</v>
+        <v>356.1978892660173</v>
       </c>
       <c r="E80">
         <v>417.6700000000001</v>
@@ -8189,37 +8189,37 @@
         <v>24.3</v>
       </c>
       <c r="M80">
-        <v>126.325134</v>
+        <v>122.008029</v>
       </c>
       <c r="N80">
-        <v>-102.025134</v>
+        <v>-97.70802900000002</v>
       </c>
       <c r="O80">
-        <v>-22.44552948</v>
+        <v>-21.49576638000001</v>
       </c>
       <c r="P80">
-        <v>-79.57960452000002</v>
+        <v>-76.21226262000002</v>
       </c>
       <c r="Q80">
-        <v>-69.97960452000002</v>
+        <v>-66.61226262000002</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.4018493631993177</v>
+        <v>0.4142231867945268</v>
       </c>
       <c r="T80">
-        <v>4.034063429595921</v>
+        <v>4.029190856881264</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.04231936931885621</v>
+        <v>0.04381678848364971</v>
       </c>
       <c r="W80">
-        <v>0.1821508559555536</v>
+        <v>0.1756508559555535</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.1923607696311646</v>
+        <v>0.1991672203802259</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -8238,13 +8238,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2322285275491817</v>
+        <v>0.2298807687401277</v>
       </c>
       <c r="C81">
-        <v>-253.0931715892884</v>
+        <v>-243.603354064841</v>
       </c>
       <c r="D81">
-        <v>343.8918284107116</v>
+        <v>353.3816459351591</v>
       </c>
       <c r="E81">
         <v>426.1850000000001</v>
@@ -8271,37 +8271,37 @@
         <v>24.3</v>
       </c>
       <c r="M81">
-        <v>127.944687</v>
+        <v>123.5722345</v>
       </c>
       <c r="N81">
-        <v>-103.644687</v>
+        <v>-99.27223450000001</v>
       </c>
       <c r="O81">
-        <v>-22.80183114</v>
+        <v>-21.83989159</v>
       </c>
       <c r="P81">
-        <v>-80.84285586000001</v>
+        <v>-77.43234291</v>
       </c>
       <c r="Q81">
-        <v>-71.24285586000002</v>
+        <v>-67.83234291000001</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.4202326662088091</v>
+        <v>0.4335052433085521</v>
       </c>
       <c r="T81">
-        <v>4.226161688148108</v>
+        <v>4.221057088161325</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.04178368109963018</v>
+        <v>0.04326214559145161</v>
       </c>
       <c r="W81">
-        <v>0.1822527438548504</v>
+        <v>0.1757527438548503</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.1899258231801372</v>
+        <v>0.19664611632478</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8320,13 +8320,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2339725275491817</v>
+        <v>0.2316247687401277</v>
       </c>
       <c r="C82">
-        <v>-264.357130660742</v>
+        <v>-254.8904140292046</v>
       </c>
       <c r="D82">
-        <v>341.1428693392581</v>
+        <v>350.6095859707955</v>
       </c>
       <c r="E82">
         <v>434.7</v>
@@ -8353,37 +8353,37 @@
         <v>24.3</v>
       </c>
       <c r="M82">
-        <v>129.56424</v>
+        <v>125.13644</v>
       </c>
       <c r="N82">
-        <v>-105.26424</v>
+        <v>-100.83644</v>
       </c>
       <c r="O82">
-        <v>-23.1581328</v>
+        <v>-22.1840168</v>
       </c>
       <c r="P82">
-        <v>-82.10610720000001</v>
+        <v>-78.65242320000002</v>
       </c>
       <c r="Q82">
-        <v>-72.50610720000002</v>
+        <v>-69.05242320000002</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4404542995192496</v>
+        <v>0.4547155054739796</v>
       </c>
       <c r="T82">
-        <v>4.437469772555514</v>
+        <v>4.432109942569391</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.04126138508588481</v>
+        <v>0.04272136877155847</v>
       </c>
       <c r="W82">
-        <v>0.1823520845566647</v>
+        <v>0.1758520845566647</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1875517503903854</v>
+        <v>0.1941880398707203</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8402,13 +8402,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2357165275491817</v>
+        <v>0.2333687687401277</v>
       </c>
       <c r="C83">
-        <v>-275.5774896929076</v>
+        <v>-266.1343223075475</v>
       </c>
       <c r="D83">
-        <v>338.4375103070924</v>
+        <v>347.8806776924525</v>
       </c>
       <c r="E83">
         <v>443.215</v>
@@ -8435,37 +8435,37 @@
         <v>24.3</v>
       </c>
       <c r="M83">
-        <v>131.183793</v>
+        <v>126.7006455</v>
       </c>
       <c r="N83">
-        <v>-106.883793</v>
+        <v>-102.4006455</v>
       </c>
       <c r="O83">
-        <v>-23.51443446</v>
+        <v>-22.52814201</v>
       </c>
       <c r="P83">
-        <v>-83.36935854000001</v>
+        <v>-79.87250349000001</v>
       </c>
       <c r="Q83">
-        <v>-73.76935854000001</v>
+        <v>-70.27250349000002</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4628045258097364</v>
+        <v>0.4781584268147153</v>
       </c>
       <c r="T83">
-        <v>4.67102081321633</v>
+        <v>4.665378886915148</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.04075198527000969</v>
+        <v>0.04219394446573676</v>
       </c>
       <c r="W83">
-        <v>0.1824489724016442</v>
+        <v>0.1759489724016442</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.1852362966818621</v>
+        <v>0.1917906566624398</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8484,13 +8484,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2374605275491817</v>
+        <v>0.2351127687401277</v>
       </c>
       <c r="C84">
-        <v>-286.755277806342</v>
+        <v>-277.3360787087935</v>
       </c>
       <c r="D84">
-        <v>335.7747221936581</v>
+        <v>345.1939212912065</v>
       </c>
       <c r="E84">
         <v>451.73</v>
@@ -8517,37 +8517,37 @@
         <v>24.3</v>
       </c>
       <c r="M84">
-        <v>132.803346</v>
+        <v>128.264851</v>
       </c>
       <c r="N84">
-        <v>-108.503346</v>
+        <v>-103.964851</v>
       </c>
       <c r="O84">
-        <v>-23.87073612</v>
+        <v>-22.87226722</v>
       </c>
       <c r="P84">
-        <v>-84.63260988</v>
+        <v>-81.09258378</v>
       </c>
       <c r="Q84">
-        <v>-75.03260988000001</v>
+        <v>-71.49258378</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.487638110576944</v>
+        <v>0.5042061171933107</v>
       </c>
       <c r="T84">
-        <v>4.930521969506127</v>
+        <v>4.924566602854878</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.04025500983988762</v>
+        <v>0.04167938416737411</v>
       </c>
       <c r="W84">
-        <v>0.1825434971284534</v>
+        <v>0.1760434971284534</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.1829773174540346</v>
+        <v>0.1894517462153369</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8566,13 +8566,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2392045275491817</v>
+        <v>0.2368567687401277</v>
       </c>
       <c r="C85">
-        <v>-297.8914919864208</v>
+        <v>-288.4966523916374</v>
       </c>
       <c r="D85">
-        <v>333.1535080135792</v>
+        <v>342.5483476083626</v>
       </c>
       <c r="E85">
         <v>460.245</v>
@@ -8599,37 +8599,37 @@
         <v>24.3</v>
       </c>
       <c r="M85">
-        <v>134.422899</v>
+        <v>129.8290565</v>
       </c>
       <c r="N85">
-        <v>-110.122899</v>
+        <v>-105.5290565</v>
       </c>
       <c r="O85">
-        <v>-24.22703778</v>
+        <v>-23.21639243</v>
       </c>
       <c r="P85">
-        <v>-85.89586122</v>
+        <v>-82.31266407000001</v>
       </c>
       <c r="Q85">
-        <v>-76.29586122000001</v>
+        <v>-72.71266407000002</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.5153932935520584</v>
+        <v>0.5333182417340937</v>
       </c>
       <c r="T85">
-        <v>5.220552673594723</v>
+        <v>5.214246991258108</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.03977000972133476</v>
+        <v>0.04117722291234551</v>
       </c>
       <c r="W85">
-        <v>0.1826357441510021</v>
+        <v>0.1761357441510021</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1807727714606125</v>
+        <v>0.187169195056116</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8648,13 +8648,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2409485275491817</v>
+        <v>0.2386007687401276</v>
       </c>
       <c r="C86">
-        <v>-308.9870983279336</v>
+        <v>-299.6169830301318</v>
       </c>
       <c r="D86">
-        <v>330.5729016720664</v>
+        <v>339.9430169698682</v>
       </c>
       <c r="E86">
         <v>468.76</v>
@@ -8681,37 +8681,37 @@
         <v>24.3</v>
       </c>
       <c r="M86">
-        <v>136.042452</v>
+        <v>131.393262</v>
       </c>
       <c r="N86">
-        <v>-111.742452</v>
+        <v>-107.093262</v>
       </c>
       <c r="O86">
-        <v>-24.58333944</v>
+        <v>-23.56051764</v>
       </c>
       <c r="P86">
-        <v>-87.15911256</v>
+        <v>-83.53274436</v>
       </c>
       <c r="Q86">
-        <v>-77.55911256</v>
+        <v>-73.93274436</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5466178743990617</v>
+        <v>0.5660693818424742</v>
       </c>
       <c r="T86">
-        <v>5.546837215694389</v>
+        <v>5.540137428211737</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.0392965572246522</v>
+        <v>0.04068701787767474</v>
       </c>
       <c r="W86">
-        <v>0.1827257948158712</v>
+        <v>0.1762257948158712</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1786207146575099</v>
+        <v>0.184940990353067</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8730,13 +8730,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2426925275491817</v>
+        <v>0.2403447687401277</v>
       </c>
       <c r="C87">
-        <v>-320.0430332222796</v>
+        <v>-310.6979819264855</v>
       </c>
       <c r="D87">
-        <v>328.0319667777204</v>
+        <v>337.3770180735145</v>
       </c>
       <c r="E87">
         <v>477.275</v>
@@ -8763,37 +8763,37 @@
         <v>24.3</v>
       </c>
       <c r="M87">
-        <v>137.662005</v>
+        <v>132.9574675</v>
       </c>
       <c r="N87">
-        <v>-113.362005</v>
+        <v>-108.6574675</v>
       </c>
       <c r="O87">
-        <v>-24.9396411</v>
+        <v>-23.90464285</v>
       </c>
       <c r="P87">
-        <v>-88.42236389999999</v>
+        <v>-84.75282465000001</v>
       </c>
       <c r="Q87">
-        <v>-78.8223639</v>
+        <v>-75.15282465000001</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5820057326923326</v>
+        <v>0.6031873406319727</v>
       </c>
       <c r="T87">
-        <v>5.916626363407349</v>
+        <v>5.909479923425853</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.03883424478671512</v>
+        <v>0.04020834707911385</v>
       </c>
       <c r="W87">
-        <v>0.1828137266415668</v>
+        <v>0.1763137266415668</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1765192944850686</v>
+        <v>0.182765213995972</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8812,13 +8812,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2444365275491817</v>
+        <v>0.2420887687401277</v>
       </c>
       <c r="C88">
-        <v>-331.0602044903298</v>
+        <v>-321.7405330738393</v>
       </c>
       <c r="D88">
-        <v>325.5297955096702</v>
+        <v>334.8494669261606</v>
       </c>
       <c r="E88">
         <v>485.79</v>
@@ -8845,37 +8845,37 @@
         <v>24.3</v>
       </c>
       <c r="M88">
-        <v>139.281558</v>
+        <v>134.521673</v>
       </c>
       <c r="N88">
-        <v>-114.981558</v>
+        <v>-110.221673</v>
       </c>
       <c r="O88">
-        <v>-25.29594276</v>
+        <v>-24.24876806</v>
       </c>
       <c r="P88">
-        <v>-89.68561523999999</v>
+        <v>-85.97290493999999</v>
       </c>
       <c r="Q88">
-        <v>-80.08561524</v>
+        <v>-76.37290494</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.6224489993132135</v>
+        <v>0.6456078649628278</v>
       </c>
       <c r="T88">
-        <v>6.33924253222216</v>
+        <v>6.331585632241985</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.03838268380082308</v>
+        <v>0.03974080815958927</v>
       </c>
       <c r="W88">
-        <v>0.1828996135410834</v>
+        <v>0.1763996135410835</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1744667445491958</v>
+        <v>0.1806400370890422</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8894,13 +8894,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2461805275491817</v>
+        <v>0.2438327687401277</v>
       </c>
       <c r="C89">
-        <v>-342.0394924638334</v>
+        <v>-332.7454941716265</v>
       </c>
       <c r="D89">
-        <v>323.0655075361665</v>
+        <v>332.3595058283735</v>
       </c>
       <c r="E89">
         <v>494.3049999999999</v>
@@ -8927,37 +8927,37 @@
         <v>24.3</v>
       </c>
       <c r="M89">
-        <v>140.901111</v>
+        <v>136.0858785</v>
       </c>
       <c r="N89">
-        <v>-116.601111</v>
+        <v>-111.7858785</v>
       </c>
       <c r="O89">
-        <v>-25.65224442</v>
+        <v>-24.59289327</v>
       </c>
       <c r="P89">
-        <v>-90.94886657999999</v>
+        <v>-87.19298522999998</v>
       </c>
       <c r="Q89">
-        <v>-81.34886657999999</v>
+        <v>-77.59298522999998</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6691143069526915</v>
+        <v>0.6945546238061222</v>
       </c>
       <c r="T89">
-        <v>6.826876573162326</v>
+        <v>6.818630680875984</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.0379415035272504</v>
+        <v>0.0392840172612032</v>
       </c>
       <c r="W89">
-        <v>0.182983526029117</v>
+        <v>0.176483526029117</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.17246137966932</v>
+        <v>0.1785637148236509</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8976,13 +8976,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2479245275491817</v>
+        <v>0.2455767687401277</v>
       </c>
       <c r="C90">
-        <v>-352.9817510180753</v>
+        <v>-343.713697595964</v>
       </c>
       <c r="D90">
-        <v>320.6382489819247</v>
+        <v>329.906302404036</v>
       </c>
       <c r="E90">
         <v>502.8200000000001</v>
@@ -9009,37 +9009,37 @@
         <v>24.3</v>
       </c>
       <c r="M90">
-        <v>142.520664</v>
+        <v>137.650084</v>
       </c>
       <c r="N90">
-        <v>-118.220664</v>
+        <v>-113.350084</v>
       </c>
       <c r="O90">
-        <v>-26.00854608</v>
+        <v>-24.93701848000001</v>
       </c>
       <c r="P90">
-        <v>-92.21211792000001</v>
+        <v>-88.41306552000002</v>
       </c>
       <c r="Q90">
-        <v>-82.61211792000002</v>
+        <v>-78.81306552000002</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.723557165865416</v>
+        <v>0.751659175789966</v>
       </c>
       <c r="T90">
-        <v>7.395782954259189</v>
+        <v>7.386849904282318</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.0375103500780771</v>
+        <v>0.03883760797414406</v>
       </c>
       <c r="W90">
-        <v>0.1830655314151498</v>
+        <v>0.1765655314151497</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1705015912639868</v>
+        <v>0.1765345817006548</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -9058,13 +9058,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2496685275491817</v>
+        <v>0.2473207687401276</v>
       </c>
       <c r="C91">
-        <v>-363.8878085583289</v>
+        <v>-354.6459513273845</v>
       </c>
       <c r="D91">
-        <v>318.2471914416712</v>
+        <v>327.4890486726155</v>
       </c>
       <c r="E91">
         <v>511.335</v>
@@ -9091,37 +9091,37 @@
         <v>24.3</v>
       </c>
       <c r="M91">
-        <v>144.140217</v>
+        <v>139.2142895</v>
       </c>
       <c r="N91">
-        <v>-119.840217</v>
+        <v>-114.9142895</v>
       </c>
       <c r="O91">
-        <v>-26.36484774</v>
+        <v>-25.28114369</v>
       </c>
       <c r="P91">
-        <v>-93.47536926000001</v>
+        <v>-89.63314581</v>
       </c>
       <c r="Q91">
-        <v>-83.87536926000001</v>
+        <v>-80.03314581000001</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.7878987263986356</v>
+        <v>0.8191463735890536</v>
       </c>
       <c r="T91">
-        <v>8.068126859191842</v>
+        <v>8.058381713762527</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.03708888547045825</v>
+        <v>0.03840123035645705</v>
       </c>
       <c r="W91">
-        <v>0.1831456939835188</v>
+        <v>0.1766456939835188</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1685858430475375</v>
+        <v>0.1745510470748047</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -9140,13 +9140,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2514125275491817</v>
+        <v>0.2490647687401277</v>
       </c>
       <c r="C92">
-        <v>-374.7584689624999</v>
+        <v>-365.5430398380785</v>
       </c>
       <c r="D92">
-        <v>315.8915310375001</v>
+        <v>325.1069601619215</v>
       </c>
       <c r="E92">
         <v>519.85</v>
@@ -9173,37 +9173,37 @@
         <v>24.3</v>
       </c>
       <c r="M92">
-        <v>145.75977</v>
+        <v>140.778495</v>
       </c>
       <c r="N92">
-        <v>-121.45977</v>
+        <v>-116.478495</v>
       </c>
       <c r="O92">
-        <v>-26.7211494</v>
+        <v>-25.6252689</v>
       </c>
       <c r="P92">
-        <v>-94.7386206</v>
+        <v>-90.8532261</v>
       </c>
       <c r="Q92">
-        <v>-85.13862060000001</v>
+        <v>-81.25322610000001</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.8651085990384992</v>
+        <v>0.9001310109479592</v>
       </c>
       <c r="T92">
-        <v>8.874939545111028</v>
+        <v>8.864219885138782</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.03667678674300872</v>
+        <v>0.03797455001916309</v>
       </c>
       <c r="W92">
-        <v>0.1832240751614798</v>
+        <v>0.1767240751614798</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1667126670136759</v>
+        <v>0.1726115909961958</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -9222,13 +9222,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2531565275491817</v>
+        <v>0.2508087687401277</v>
       </c>
       <c r="C93">
-        <v>-385.5945124822121</v>
+        <v>-376.4057249406947</v>
       </c>
       <c r="D93">
-        <v>313.570487517788</v>
+        <v>322.7592750593054</v>
       </c>
       <c r="E93">
         <v>528.365</v>
@@ -9255,37 +9255,37 @@
         <v>24.3</v>
       </c>
       <c r="M93">
-        <v>147.379323</v>
+        <v>142.3427005</v>
       </c>
       <c r="N93">
-        <v>-123.079323</v>
+        <v>-118.0427005</v>
       </c>
       <c r="O93">
-        <v>-27.07745106</v>
+        <v>-25.96939411</v>
       </c>
       <c r="P93">
-        <v>-96.00187194</v>
+        <v>-92.07330639</v>
       </c>
       <c r="Q93">
-        <v>-86.40187194000001</v>
+        <v>-82.47330639</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.9594762211538881</v>
+        <v>0.9991122343866214</v>
       </c>
       <c r="T93">
-        <v>9.861043939012253</v>
+        <v>9.849133205709759</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.03627374513044818</v>
+        <v>0.03755724727169975</v>
       </c>
       <c r="W93">
-        <v>0.1833007336761888</v>
+        <v>0.1768007336761888</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1648806596838553</v>
+        <v>0.1707147603259079</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9304,13 +9304,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2549005275491817</v>
+        <v>0.2525527687401277</v>
       </c>
       <c r="C94">
-        <v>-396.3966966044576</v>
+        <v>-387.2347466006281</v>
       </c>
       <c r="D94">
-        <v>311.2833033955424</v>
+        <v>320.4452533993719</v>
       </c>
       <c r="E94">
         <v>536.88</v>
@@ -9337,37 +9337,37 @@
         <v>24.3</v>
       </c>
       <c r="M94">
-        <v>148.998876</v>
+        <v>143.906906</v>
       </c>
       <c r="N94">
-        <v>-124.698876</v>
+        <v>-119.606906</v>
       </c>
       <c r="O94">
-        <v>-27.43375272</v>
+        <v>-26.31351932</v>
       </c>
       <c r="P94">
-        <v>-97.26512328</v>
+        <v>-93.29338668</v>
       </c>
       <c r="Q94">
-        <v>-87.66512328</v>
+        <v>-83.69338668</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>1.077435748798124</v>
+        <v>1.12283876368495</v>
       </c>
       <c r="T94">
-        <v>11.09367443138879</v>
+        <v>11.08027485642348</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.03587946529207375</v>
+        <v>0.03714901632309432</v>
       </c>
       <c r="W94">
-        <v>0.1833757257014476</v>
+        <v>0.1768757257014476</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.1630884786003352</v>
+        <v>0.1688591651049741</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9386,13 +9386,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2566445275491817</v>
+        <v>0.2542967687401277</v>
       </c>
       <c r="C95">
-        <v>-407.1657568758125</v>
+        <v>-398.0308237136136</v>
       </c>
       <c r="D95">
-        <v>309.0292431241876</v>
+        <v>318.1641762863865</v>
       </c>
       <c r="E95">
         <v>545.3950000000001</v>
@@ -9419,37 +9419,37 @@
         <v>24.3</v>
       </c>
       <c r="M95">
-        <v>150.618429</v>
+        <v>145.4711115</v>
       </c>
       <c r="N95">
-        <v>-126.318429</v>
+        <v>-121.1711115</v>
       </c>
       <c r="O95">
-        <v>-27.79005438</v>
+        <v>-26.65764453</v>
       </c>
       <c r="P95">
-        <v>-98.52837462000002</v>
+        <v>-94.51346697000001</v>
       </c>
       <c r="Q95">
-        <v>-88.92837462000003</v>
+        <v>-84.91346697000002</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.229097998626428</v>
+        <v>1.281915729925657</v>
       </c>
       <c r="T95">
-        <v>12.67848506444433</v>
+        <v>12.66317126448398</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.03549366459000844</v>
+        <v>0.03674956453467395</v>
       </c>
       <c r="W95">
-        <v>0.1834491049949804</v>
+        <v>0.1769491049949804</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.1613348390454928</v>
+        <v>0.1670434751576089</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9468,13 +9468,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2583885275491817</v>
+        <v>0.2560407687401277</v>
       </c>
       <c r="C96">
-        <v>-417.9024076910981</v>
+        <v>-408.7946548503436</v>
       </c>
       <c r="D96">
-        <v>306.807592308902</v>
+        <v>315.9153451496565</v>
       </c>
       <c r="E96">
         <v>553.9100000000001</v>
@@ -9501,37 +9501,37 @@
         <v>24.3</v>
       </c>
       <c r="M96">
-        <v>152.237982</v>
+        <v>147.035317</v>
       </c>
       <c r="N96">
-        <v>-127.937982</v>
+        <v>-122.735317</v>
       </c>
       <c r="O96">
-        <v>-28.14635604</v>
+        <v>-27.00176974</v>
       </c>
       <c r="P96">
-        <v>-99.79162596000002</v>
+        <v>-95.73354726000002</v>
       </c>
       <c r="Q96">
-        <v>-90.19162596000002</v>
+        <v>-86.13354726000003</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.431314331730833</v>
+        <v>1.494018351579933</v>
       </c>
       <c r="T96">
-        <v>14.79156590851839</v>
+        <v>14.77369980856465</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.03511607241351898</v>
+        <v>0.03635861172047529</v>
       </c>
       <c r="W96">
-        <v>0.1835209230269487</v>
+        <v>0.1770209230269487</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1596185109705408</v>
+        <v>0.1652664169112513</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9550,13 +9550,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2601325275491817</v>
+        <v>0.2577847687401277</v>
       </c>
       <c r="C97">
-        <v>-428.6073430482683</v>
+        <v>-419.5269189697278</v>
       </c>
       <c r="D97">
-        <v>304.6176569517318</v>
+        <v>313.6980810302722</v>
       </c>
       <c r="E97">
         <v>562.4250000000001</v>
@@ -9583,37 +9583,37 @@
         <v>24.3</v>
       </c>
       <c r="M97">
-        <v>153.857535</v>
+        <v>148.5995225</v>
       </c>
       <c r="N97">
-        <v>-129.557535</v>
+        <v>-124.2995225</v>
       </c>
       <c r="O97">
-        <v>-28.5026577</v>
+        <v>-27.34589495</v>
       </c>
       <c r="P97">
-        <v>-101.0548773</v>
+        <v>-96.95362755000001</v>
       </c>
       <c r="Q97">
-        <v>-91.45487730000001</v>
+        <v>-87.35362755000001</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.714417198077</v>
+        <v>1.79096202189592</v>
       </c>
       <c r="T97">
-        <v>17.74987909022207</v>
+        <v>17.72843977027758</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.03474642954600825</v>
+        <v>0.03597588949183871</v>
       </c>
       <c r="W97">
-        <v>0.1835912291003492</v>
+        <v>0.1770912291003492</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.1579383161182194</v>
+        <v>0.1635267704174487</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9632,13 +9632,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2618765275491817</v>
+        <v>0.2595287687401277</v>
       </c>
       <c r="C98">
-        <v>-439.281237271195</v>
+        <v>-430.2282761023281</v>
       </c>
       <c r="D98">
-        <v>302.458762728805</v>
+        <v>311.5117238976719</v>
       </c>
       <c r="E98">
         <v>570.9399999999999</v>
@@ -9665,37 +9665,37 @@
         <v>24.3</v>
       </c>
       <c r="M98">
-        <v>155.477088</v>
+        <v>150.163728</v>
       </c>
       <c r="N98">
-        <v>-131.177088</v>
+        <v>-125.863728</v>
       </c>
       <c r="O98">
-        <v>-28.85895936</v>
+        <v>-27.69002016</v>
       </c>
       <c r="P98">
-        <v>-102.31812864</v>
+        <v>-98.17370783999999</v>
       </c>
       <c r="Q98">
-        <v>-92.71812864</v>
+        <v>-88.57370784</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>2.139071497596246</v>
+        <v>2.236377527369896</v>
       </c>
       <c r="T98">
-        <v>22.18734886277755</v>
+        <v>22.16054971284693</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.03438448757157068</v>
+        <v>0.0356011406429654</v>
       </c>
       <c r="W98">
-        <v>0.1836600704638873</v>
+        <v>0.1771600704638873</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.1562931253253214</v>
+        <v>0.1618233665589336</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2636205275491817</v>
+        <v>0.2612727687401277</v>
       </c>
       <c r="C99">
-        <v>-449.9247457019358</v>
+        <v>-440.8993680054093</v>
       </c>
       <c r="D99">
-        <v>300.3302542980642</v>
+        <v>309.3556319945907</v>
       </c>
       <c r="E99">
         <v>579.4549999999999</v>
@@ -9747,37 +9747,37 @@
         <v>24.3</v>
       </c>
       <c r="M99">
-        <v>157.096641</v>
+        <v>151.7279335</v>
       </c>
       <c r="N99">
-        <v>-132.796641</v>
+        <v>-127.4279335</v>
       </c>
       <c r="O99">
-        <v>-29.21526102</v>
+        <v>-28.03414537</v>
       </c>
       <c r="P99">
-        <v>-103.58137998</v>
+        <v>-99.39378812999999</v>
       </c>
       <c r="Q99">
-        <v>-93.98137998</v>
+        <v>-89.79378813</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.846828663461661</v>
+        <v>2.978736703159861</v>
       </c>
       <c r="T99">
-        <v>29.58313181703673</v>
+        <v>29.54739961712925</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.03403000831825551</v>
+        <v>0.03523411857448122</v>
       </c>
       <c r="W99">
-        <v>0.1837274924178678</v>
+        <v>0.1772274924178678</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.1546818559920706</v>
+        <v>0.16015508442946</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9796,13 +9796,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2653645275491817</v>
+        <v>0.2630167687401276</v>
       </c>
       <c r="C100">
-        <v>-460.5385053639739</v>
+        <v>-451.5408187909747</v>
       </c>
       <c r="D100">
-        <v>298.2314946360261</v>
+        <v>307.2291812090253</v>
       </c>
       <c r="E100">
         <v>587.97</v>
@@ -9829,37 +9829,37 @@
         <v>24.3</v>
       </c>
       <c r="M100">
-        <v>158.716194</v>
+        <v>153.292139</v>
       </c>
       <c r="N100">
-        <v>-134.416194</v>
+        <v>-128.992139</v>
       </c>
       <c r="O100">
-        <v>-29.57156268</v>
+        <v>-28.37827058</v>
       </c>
       <c r="P100">
-        <v>-104.84463132</v>
+        <v>-100.61386842</v>
       </c>
       <c r="Q100">
-        <v>-95.24463132</v>
+        <v>-91.01386842000001</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>4.26234299519249</v>
+        <v>4.463455054739791</v>
       </c>
       <c r="T100">
-        <v>44.37469772555509</v>
+        <v>44.32109942569387</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.03368276333541617</v>
+        <v>0.03487458675229262</v>
       </c>
       <c r="W100">
-        <v>0.1837935384136039</v>
+        <v>0.1772935384136038</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.1531034697064372</v>
+        <v>0.1585208488740575</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2671085275491817</v>
+        <v>0.2647607687401277</v>
       </c>
       <c r="C101">
-        <v>-471.1231355978442</v>
+        <v>-462.1532355280769</v>
       </c>
       <c r="D101">
-        <v>296.1618644021559</v>
+        <v>305.1317644719231</v>
       </c>
       <c r="E101">
         <v>596.485</v>
@@ -9911,37 +9911,37 @@
         <v>24.3</v>
       </c>
       <c r="M101">
-        <v>160.335747</v>
+        <v>154.8563445</v>
       </c>
       <c r="N101">
-        <v>-136.035747</v>
+        <v>-130.5563445</v>
       </c>
       <c r="O101">
-        <v>-29.92786434</v>
+        <v>-28.72239579</v>
       </c>
       <c r="P101">
-        <v>-106.10788266</v>
+        <v>-101.83394871</v>
       </c>
       <c r="Q101">
-        <v>-96.50788265999999</v>
+        <v>-92.23394870999999</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>8.508885990384984</v>
+        <v>8.917610109479583</v>
       </c>
       <c r="T101">
-        <v>88.74939545111019</v>
+        <v>88.64219885138773</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.0333425334027352</v>
+        <v>0.03452231819923917</v>
       </c>
       <c r="W101">
-        <v>0.1838582501467998</v>
+        <v>0.1773582501467998</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.1515569700124328</v>
+        <v>0.1569196281783599</v>
       </c>
       <c r="Z101">
         <v>0</v>
